--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -1,20 +1,71 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A968D-B053-449D-ABEC-0FBCD74208BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+  <si>
+    <t>Title A1.1</t>
+  </si>
+  <si>
+    <t>Static Row 1</t>
+  </si>
+  <si>
+    <t>Static Row 2</t>
+  </si>
+  <si>
+    <t>Static Row 3</t>
+  </si>
+  <si>
+    <t>Static Row 4</t>
+  </si>
+  <si>
+    <t>Static Row 5</t>
+  </si>
+  <si>
+    <t>Static Row 6</t>
+  </si>
+  <si>
+    <t>Title A1.2</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>Title A1.3</t>
+  </si>
+  <si>
+    <t>Title A2</t>
+  </si>
+  <si>
+    <t>Subtitle A2.1</t>
+  </si>
+  <si>
+    <t>Subtitle A2.2</t>
+  </si>
+  <si>
+    <t>Subtitle A2.3</t>
+  </si>
+  <si>
+    <t>Static Text: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque non laoreet mauris. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Curabitur vulputate bibendum nibh elementum pulvinar. Integer a leo in orci ultricies fermentum. Ut vitae velit et sapien congue accumsan sed tincidunt dui. Ut elementum imperdiet nunc, non hendrerit enim ultrices at. Sed rhoncus vehicula.</t>
+  </si>
   <si>
     <t>Titulo Static</t>
   </si>
@@ -80,13 +131,46 @@
   </si>
   <si>
     <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>Title B1</t>
+  </si>
+  <si>
+    <t>Title B1.1</t>
+  </si>
+  <si>
+    <t>Subtitle 1</t>
+  </si>
+  <si>
+    <t>Static Row 7</t>
+  </si>
+  <si>
+    <t>Subtitle 2</t>
+  </si>
+  <si>
+    <t>Title B1.2</t>
+  </si>
+  <si>
+    <t>Title B1.3</t>
+  </si>
+  <si>
+    <t>Title B1.4</t>
+  </si>
+  <si>
+    <t>Title B1.5</t>
+  </si>
+  <si>
+    <t>Title B1.6</t>
+  </si>
+  <si>
+    <t>Title B1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,16 +222,95 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="16">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3DFEE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFA7BFDE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -158,33 +321,48 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF00FF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EC268"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3DFEE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -222,7 +400,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -256,6 +434,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -290,9 +469,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,161 +645,841 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.6640625" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="46.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" t="s">
+        <v>25</v>
+      </c>
+      <c r="E22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
+      <c r="B26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>44</v>
+      </c>
+      <c r="E30" t="s">
+        <v>45</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+      <c r="G32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" t="s">
+        <v>8</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+      <c r="G34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E36" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+      <c r="G37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="G38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+      <c r="G39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" t="s">
+        <v>8</v>
+      </c>
+      <c r="E40" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+      <c r="G40" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:E1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+  <mergeCells count="13">
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:A8">
+    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
+      <formula>LEN(TRIM(A2))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A28">
+    <cfRule type="notContainsBlanks" dxfId="14" priority="17">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A32:A44">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="25">
+      <formula>LEN(TRIM(A32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A7">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
-      <formula>LEN(TRIM(A2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B7">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
+  <conditionalFormatting sqref="A21:E21">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A9:G9">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+      <formula>LEN(TRIM(A9))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A10:G10">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="6">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:G29">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="22">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="23">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:G31">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="24">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B8">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+  <conditionalFormatting sqref="B22:B28">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="18">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:B44">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="26">
+      <formula>LEN(TRIM(B32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C8">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="5">
-      <formula>LEN(TRIM(D2))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E7">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
-      <formula>LEN(TRIM(E2))&gt;0</formula>
+  <conditionalFormatting sqref="C22:E28">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="19">
+      <formula>LEN(TRIM(C22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32:G44">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+      <formula>LEN(TRIM(C32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diego\OneDrive\Documents\The_MechaBible\p_Python_ESP\1.-Data Science\0.-Archivos_Ejercicios_Python\23.-GUI PyQt5 Conexion DataBase\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24A968D-B053-449D-ABEC-0FBCD74208BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -169,8 +163,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,22 +216,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FF4F81BD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD3DFEE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0070C0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF0000FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF008000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF808080"/>
         </patternFill>
       </fill>
     </dxf>
@@ -251,77 +285,7 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFD3DFEE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF808080"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0070C0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFA7BFDE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF4F81BD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -335,34 +299,19 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FF008000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD3DFEE"/>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -400,7 +349,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -434,7 +383,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -469,10 +417,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -645,23 +592,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:G16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="46.6640625" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" customWidth="1"/>
+    <col min="1" max="1" width="17.7109375" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="46.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -672,7 +617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -683,7 +628,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -694,7 +639,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -705,7 +650,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -716,7 +661,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -727,7 +672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -738,260 +683,260 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
         <v>15</v>
       </c>
@@ -1008,7 +953,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1025,7 +970,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1042,7 +987,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1059,7 +1004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1076,7 +1021,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>21</v>
       </c>
@@ -1093,7 +1038,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>21</v>
       </c>
@@ -1110,30 +1055,30 @@
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
         <v>37</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+      <c r="G29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>38</v>
       </c>
@@ -1156,30 +1101,30 @@
         <v>47</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
         <v>39</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+      <c r="G31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>1</v>
       </c>
@@ -1202,7 +1147,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -1225,7 +1170,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1193,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>4</v>
       </c>
@@ -1271,7 +1216,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1294,7 +1239,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>6</v>
       </c>
@@ -1317,7 +1262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>40</v>
       </c>
@@ -1340,7 +1285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>41</v>
       </c>
@@ -1363,7 +1308,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -1388,98 +1333,155 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
     <mergeCell ref="A15:G15"/>
     <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A31:G31"/>
   </mergeCells>
+  <conditionalFormatting sqref="A10:G10">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="6">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="7">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="8">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="9">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="10">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="11">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="12">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="13">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="14">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="3" priority="15">
+      <formula>LEN(TRIM(A10))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:C1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(A1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21:E21">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="16">
+      <formula>LEN(TRIM(A21))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22:A28">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="17">
+      <formula>LEN(TRIM(A22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29:G29">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="22">
+      <formula>LEN(TRIM(A29))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="notContainsBlanks" dxfId="15" priority="2">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A22:A28">
-    <cfRule type="notContainsBlanks" dxfId="14" priority="17">
-      <formula>LEN(TRIM(A22))&gt;0</formula>
+  <conditionalFormatting sqref="A30:G30">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="23">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A31:G31">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="24">
+      <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32:A44">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="25">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="1">
-      <formula>LEN(TRIM(A1))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A21:E21">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="16">
-      <formula>LEN(TRIM(A21))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A9:G9">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="5">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="5">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A10:G10">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="6">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A29:G29">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="22">
-      <formula>LEN(TRIM(A29))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="23">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="24">
-      <formula>LEN(TRIM(A31))&gt;0</formula>
+  <conditionalFormatting sqref="B22:B28">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="18">
+      <formula>LEN(TRIM(B22))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="3">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:B28">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="18">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B32:B44">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="26">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="26">
       <formula>LEN(TRIM(B32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C28">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="19">
+      <formula>LEN(TRIM(C22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="4">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="4">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:E28">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="19">
-      <formula>LEN(TRIM(C22))&gt;0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C32:G44">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="27">
+  <conditionalFormatting sqref="C32:C44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="27">
       <formula>LEN(TRIM(C32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:D28">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="20">
+      <formula>LEN(TRIM(D22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:D44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="28">
+      <formula>LEN(TRIM(D32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E22:E28">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="21">
+      <formula>LEN(TRIM(E22))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32:E44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="29">
+      <formula>LEN(TRIM(E32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32:F44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="30">
+      <formula>LEN(TRIM(F32))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32:G44">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="31">
+      <formula>LEN(TRIM(G32))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -225,7 +225,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="14">
     <dxf>
       <font>
         <b/>
@@ -273,6 +273,17 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+        <u/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF0000FF"/>
@@ -280,6 +291,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF008000"/>
@@ -301,6 +315,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF4F81BD"/>
@@ -308,6 +325,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFA7BFDE"/>
@@ -315,6 +335,9 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
       <fill>
         <patternFill>
           <bgColor rgb="FF5EC268"/>
@@ -1005,35 +1028,53 @@
     <mergeCell ref="A39:G39"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:G10">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="9">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="9">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11:G11">
     <cfRule type="notContainsBlanks" dxfId="2" priority="10">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A11))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:G12">
     <cfRule type="notContainsBlanks" dxfId="2" priority="11">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="12">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A12))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A13:G13">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+      <formula>LEN(TRIM(A13))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A14:G14">
     <cfRule type="notContainsBlanks" dxfId="2" priority="13">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A14))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A15:G15">
     <cfRule type="notContainsBlanks" dxfId="2" priority="14">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="2" priority="15">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A15))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A16:G16">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="15">
+      <formula>LEN(TRIM(A16))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17:G17">
     <cfRule type="notContainsBlanks" dxfId="2" priority="16">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A17))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A18:G18">
     <cfRule type="notContainsBlanks" dxfId="2" priority="17">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
-    </cfRule>
+      <formula>LEN(TRIM(A18))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A19:G19">
     <cfRule type="notContainsBlanks" dxfId="2" priority="18">
-      <formula>LEN(TRIM(A10))&gt;0</formula>
+      <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
@@ -1042,23 +1083,23 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:E21">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="19">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="19">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="21">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="21">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="6" priority="22">
+    <cfRule type="containsBlanks" dxfId="7" priority="22">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:A40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="35">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="35">
       <formula>LEN(TRIM(A28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="36">
+    <cfRule type="containsBlanks" dxfId="12" priority="36">
       <formula>LEN(TRIM(A28))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1073,7 +1114,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="31">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="31">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1083,17 +1124,17 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="32">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="33">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="34">
       <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1108,18 +1149,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B28">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="23">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
       <formula>LEN(TRIM(B22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="24">
+    <cfRule type="containsBlanks" dxfId="8" priority="24">
       <formula>LEN(TRIM(B22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B28:B40">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="37">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="37">
       <formula>LEN(TRIM(B28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="38">
+    <cfRule type="containsBlanks" dxfId="8" priority="38">
       <formula>LEN(TRIM(B28))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1132,18 +1173,18 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C28">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="25">
       <formula>LEN(TRIM(C22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="26">
+    <cfRule type="containsBlanks" dxfId="9" priority="26">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28:C40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="39">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="39">
       <formula>LEN(TRIM(C28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="40">
+    <cfRule type="containsBlanks" dxfId="13" priority="40">
       <formula>LEN(TRIM(C28))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1156,50 +1197,50 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D28">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="27">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="28">
+    <cfRule type="containsBlanks" dxfId="9" priority="28">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D28:D40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="41">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="41">
       <formula>LEN(TRIM(D28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="42">
+    <cfRule type="containsBlanks" dxfId="13" priority="42">
       <formula>LEN(TRIM(D28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E28">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="29">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="30">
+    <cfRule type="containsBlanks" dxfId="9" priority="30">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="43">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="43">
       <formula>LEN(TRIM(E28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="44">
+    <cfRule type="containsBlanks" dxfId="13" priority="44">
       <formula>LEN(TRIM(E28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F28:F40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="45">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="45">
       <formula>LEN(TRIM(F28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="46">
+    <cfRule type="containsBlanks" dxfId="13" priority="46">
       <formula>LEN(TRIM(F28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G28:G40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="47">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="47">
       <formula>LEN(TRIM(G28))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="48">
+    <cfRule type="containsBlanks" dxfId="13" priority="48">
       <formula>LEN(TRIM(G28))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -301,6 +301,16 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF5EC268"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FF808080"/>
@@ -311,6 +321,13 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -331,23 +348,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFA7BFDE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF5EC268"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -647,11 +647,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="46.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.7109375" customWidth="1"/>
+    <col min="1" max="7" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1095,24 +1091,11 @@
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:A40">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="35">
-      <formula>LEN(TRIM(A28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="12" priority="36">
-      <formula>LEN(TRIM(A28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
     <cfRule type="containsBlanks" dxfId="2" priority="20">
       <formula>LEN(TRIM(A28))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A28:G41">
-    <cfRule type="containsBlanks" dxfId="2" priority="49">
-      <formula>LEN(TRIM(A28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29">
     <cfRule type="notContainsBlanks" dxfId="5" priority="31">
       <formula>LEN(TRIM(A29))&gt;0</formula>
@@ -1124,18 +1107,105 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="32">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="44">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="45">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="46">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="47">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="48">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="49">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" dxfId="12" priority="50">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="33">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="51">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="A32">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="64">
+      <formula>LEN(TRIM(A32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="65">
+      <formula>LEN(TRIM(A32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A33">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="78">
+      <formula>LEN(TRIM(A33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="79">
+      <formula>LEN(TRIM(A33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A34">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="92">
+      <formula>LEN(TRIM(A34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="93">
+      <formula>LEN(TRIM(A34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A35">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="106">
+      <formula>LEN(TRIM(A35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="107">
+      <formula>LEN(TRIM(A35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="120">
+      <formula>LEN(TRIM(A36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="121">
+      <formula>LEN(TRIM(A36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A37">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="134">
+      <formula>LEN(TRIM(A37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="135">
+      <formula>LEN(TRIM(A37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="148">
+      <formula>LEN(TRIM(A38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="149">
+      <formula>LEN(TRIM(A38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="34">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="162">
       <formula>LEN(TRIM(A39))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="175">
+      <formula>LEN(TRIM(A40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="8" priority="176">
+      <formula>LEN(TRIM(A40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A41:G41">
+    <cfRule type="containsBlanks" dxfId="2" priority="189">
+      <formula>LEN(TRIM(A41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:G8">
@@ -1149,19 +1219,19 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B28">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="23">
-      <formula>LEN(TRIM(B22))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="24">
-      <formula>LEN(TRIM(B22))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B28:B40">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="37">
-      <formula>LEN(TRIM(B28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="38">
-      <formula>LEN(TRIM(B28))=0</formula>
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="standard">
+      <formula>NOT(ISERROR(SEARCH("standard",B22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="not conventional">
+      <formula>NOT(ISERROR(SEARCH("not conventional",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="32">
+      <formula>LEN(TRIM(B29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="33">
+      <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
@@ -1172,20 +1242,100 @@
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="52">
+      <formula>LEN(TRIM(B31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="53">
+      <formula>LEN(TRIM(B31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="66">
+      <formula>LEN(TRIM(B32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="67">
+      <formula>LEN(TRIM(B32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="80">
+      <formula>LEN(TRIM(B33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="81">
+      <formula>LEN(TRIM(B33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="94">
+      <formula>LEN(TRIM(B34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="95">
+      <formula>LEN(TRIM(B34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="108">
+      <formula>LEN(TRIM(B35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="109">
+      <formula>LEN(TRIM(B35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="122">
+      <formula>LEN(TRIM(B36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="123">
+      <formula>LEN(TRIM(B36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="136">
+      <formula>LEN(TRIM(B37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="137">
+      <formula>LEN(TRIM(B37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="150">
+      <formula>LEN(TRIM(B38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="151">
+      <formula>LEN(TRIM(B38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="163">
+      <formula>LEN(TRIM(B39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="164">
+      <formula>LEN(TRIM(B39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B40">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="177">
+      <formula>LEN(TRIM(B40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="9" priority="178">
+      <formula>LEN(TRIM(B40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C22:C28">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="25">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="25">
       <formula>LEN(TRIM(C22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="26">
+    <cfRule type="containsBlanks" dxfId="10" priority="26">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28:C40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="39">
-      <formula>LEN(TRIM(C28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="40">
-      <formula>LEN(TRIM(C28))=0</formula>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="34">
+      <formula>LEN(TRIM(C29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="35">
+      <formula>LEN(TRIM(C29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
@@ -1196,52 +1346,452 @@
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C31">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="54">
+      <formula>LEN(TRIM(C31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="55">
+      <formula>LEN(TRIM(C31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C32">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="68">
+      <formula>LEN(TRIM(C32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="69">
+      <formula>LEN(TRIM(C32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="82">
+      <formula>LEN(TRIM(C33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="83">
+      <formula>LEN(TRIM(C33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="96">
+      <formula>LEN(TRIM(C34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="97">
+      <formula>LEN(TRIM(C34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C35">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="110">
+      <formula>LEN(TRIM(C35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="111">
+      <formula>LEN(TRIM(C35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C36">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="124">
+      <formula>LEN(TRIM(C36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="125">
+      <formula>LEN(TRIM(C36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="138">
+      <formula>LEN(TRIM(C37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="139">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C38">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="152">
+      <formula>LEN(TRIM(C38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="153">
+      <formula>LEN(TRIM(C38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C39">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="165">
+      <formula>LEN(TRIM(C39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="166">
+      <formula>LEN(TRIM(C39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C40">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="179">
+      <formula>LEN(TRIM(C40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="180">
+      <formula>LEN(TRIM(C40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D22:D28">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="27">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="27">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="28">
+    <cfRule type="containsBlanks" dxfId="10" priority="28">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D28:D40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="41">
-      <formula>LEN(TRIM(D28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="42">
-      <formula>LEN(TRIM(D28))=0</formula>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="36">
+      <formula>LEN(TRIM(D29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="37">
+      <formula>LEN(TRIM(D29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="56">
+      <formula>LEN(TRIM(D31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="57">
+      <formula>LEN(TRIM(D31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="70">
+      <formula>LEN(TRIM(D32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="71">
+      <formula>LEN(TRIM(D32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="84">
+      <formula>LEN(TRIM(D33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="85">
+      <formula>LEN(TRIM(D33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="98">
+      <formula>LEN(TRIM(D34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="99">
+      <formula>LEN(TRIM(D34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="112">
+      <formula>LEN(TRIM(D35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="113">
+      <formula>LEN(TRIM(D35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="126">
+      <formula>LEN(TRIM(D36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="127">
+      <formula>LEN(TRIM(D36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="140">
+      <formula>LEN(TRIM(D37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="141">
+      <formula>LEN(TRIM(D37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D38">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="154">
+      <formula>LEN(TRIM(D38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="155">
+      <formula>LEN(TRIM(D38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="167">
+      <formula>LEN(TRIM(D39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="168">
+      <formula>LEN(TRIM(D39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D40">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="181">
+      <formula>LEN(TRIM(D40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="182">
+      <formula>LEN(TRIM(D40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E28">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="29">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="29">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="30">
+    <cfRule type="containsBlanks" dxfId="10" priority="30">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="43">
-      <formula>LEN(TRIM(E28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="44">
-      <formula>LEN(TRIM(E28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F28:F40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="45">
-      <formula>LEN(TRIM(F28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="46">
-      <formula>LEN(TRIM(F28))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G28:G40">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="47">
-      <formula>LEN(TRIM(G28))&gt;0</formula>
-    </cfRule>
-    <cfRule type="containsBlanks" dxfId="13" priority="48">
-      <formula>LEN(TRIM(G28))=0</formula>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="38">
+      <formula>LEN(TRIM(E29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="39">
+      <formula>LEN(TRIM(E29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E31">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="58">
+      <formula>LEN(TRIM(E31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="59">
+      <formula>LEN(TRIM(E31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E32">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="72">
+      <formula>LEN(TRIM(E32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="73">
+      <formula>LEN(TRIM(E32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="86">
+      <formula>LEN(TRIM(E33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="87">
+      <formula>LEN(TRIM(E33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="100">
+      <formula>LEN(TRIM(E34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="101">
+      <formula>LEN(TRIM(E34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E35">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="114">
+      <formula>LEN(TRIM(E35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="115">
+      <formula>LEN(TRIM(E35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="128">
+      <formula>LEN(TRIM(E36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="129">
+      <formula>LEN(TRIM(E36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="142">
+      <formula>LEN(TRIM(E37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="143">
+      <formula>LEN(TRIM(E37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E38">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="156">
+      <formula>LEN(TRIM(E38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="157">
+      <formula>LEN(TRIM(E38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="169">
+      <formula>LEN(TRIM(E39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="170">
+      <formula>LEN(TRIM(E39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E40">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="183">
+      <formula>LEN(TRIM(E40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="184">
+      <formula>LEN(TRIM(E40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F29">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="40">
+      <formula>LEN(TRIM(F29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="41">
+      <formula>LEN(TRIM(F29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F31">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="60">
+      <formula>LEN(TRIM(F31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="61">
+      <formula>LEN(TRIM(F31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F32">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="74">
+      <formula>LEN(TRIM(F32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="75">
+      <formula>LEN(TRIM(F32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="88">
+      <formula>LEN(TRIM(F33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="89">
+      <formula>LEN(TRIM(F33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="102">
+      <formula>LEN(TRIM(F34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="103">
+      <formula>LEN(TRIM(F34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F35">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="116">
+      <formula>LEN(TRIM(F35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="117">
+      <formula>LEN(TRIM(F35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="130">
+      <formula>LEN(TRIM(F36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="131">
+      <formula>LEN(TRIM(F36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F37">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="144">
+      <formula>LEN(TRIM(F37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="145">
+      <formula>LEN(TRIM(F37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F38">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="158">
+      <formula>LEN(TRIM(F38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="159">
+      <formula>LEN(TRIM(F38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="171">
+      <formula>LEN(TRIM(F39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="172">
+      <formula>LEN(TRIM(F39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F40">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="185">
+      <formula>LEN(TRIM(F40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="186">
+      <formula>LEN(TRIM(F40))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G29">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="42">
+      <formula>LEN(TRIM(G29))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="43">
+      <formula>LEN(TRIM(G29))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G31">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="62">
+      <formula>LEN(TRIM(G31))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="63">
+      <formula>LEN(TRIM(G31))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="76">
+      <formula>LEN(TRIM(G32))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="77">
+      <formula>LEN(TRIM(G32))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G33">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="90">
+      <formula>LEN(TRIM(G33))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="91">
+      <formula>LEN(TRIM(G33))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="104">
+      <formula>LEN(TRIM(G34))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="105">
+      <formula>LEN(TRIM(G34))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G35">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="118">
+      <formula>LEN(TRIM(G35))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="119">
+      <formula>LEN(TRIM(G35))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G36">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="132">
+      <formula>LEN(TRIM(G36))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="133">
+      <formula>LEN(TRIM(G36))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="146">
+      <formula>LEN(TRIM(G37))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="147">
+      <formula>LEN(TRIM(G37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G38">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="160">
+      <formula>LEN(TRIM(G38))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="161">
+      <formula>LEN(TRIM(G38))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G39">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="173">
+      <formula>LEN(TRIM(G39))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="174">
+      <formula>LEN(TRIM(G39))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="187">
+      <formula>LEN(TRIM(G40))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" dxfId="11" priority="188">
+      <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -646,9 +646,6 @@
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="7" width="18.7109375" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -1,186 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
-  <si>
-    <t>Title A1.1</t>
-  </si>
-  <si>
-    <t>Static Row 1</t>
-  </si>
-  <si>
-    <t>Static Row 2</t>
-  </si>
-  <si>
-    <t>Static Row 3</t>
-  </si>
-  <si>
-    <t>Static Row 4</t>
-  </si>
-  <si>
-    <t>Static Row 5</t>
-  </si>
-  <si>
-    <t>Static Row 6</t>
-  </si>
-  <si>
-    <t>Title A1.2</t>
-  </si>
-  <si>
-    <t>Title A1.3</t>
-  </si>
-  <si>
-    <t>Title A2</t>
-  </si>
-  <si>
-    <t>Subtitle A2.1</t>
-  </si>
-  <si>
-    <t>Subtitle A2.2</t>
-  </si>
-  <si>
-    <t>Subtitle A2.3</t>
-  </si>
-  <si>
-    <t>Static Text: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque non laoreet mauris. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Curabitur vulputate bibendum nibh elementum pulvinar. Integer a leo in orci ultricies fermentum. Ut vitae velit et sapien congue accumsan sed tincidunt dui. Ut elementum imperdiet nunc, non hendrerit enim ultrices at. Sed rhoncus vehicula.</t>
-  </si>
-  <si>
-    <t>Titulo Static</t>
-  </si>
-  <si>
-    <t>Content Status</t>
-  </si>
-  <si>
-    <t>Dato Static</t>
-  </si>
-  <si>
-    <t>Titulo</t>
-  </si>
-  <si>
-    <t>Fecha de Publicacion</t>
-  </si>
-  <si>
-    <t>Grupo de Datos 1</t>
-  </si>
-  <si>
-    <t>Grupo de Datos 2</t>
-  </si>
-  <si>
-    <t>standard</t>
-  </si>
-  <si>
-    <t>Dato grupo 1</t>
-  </si>
-  <si>
-    <t>Dato grupo 2</t>
-  </si>
-  <si>
-    <t>U.S. Robotics presenta hallazgo</t>
-  </si>
-  <si>
-    <t>Se presenta el nuevo teléfono móvil en evento</t>
-  </si>
-  <si>
-    <t>Se mejora la conducción autónoma de vehículos</t>
-  </si>
-  <si>
-    <t>Fuccia OS sacude al mundo</t>
-  </si>
-  <si>
-    <t>Tenemos campeona del mundial de volleiball</t>
-  </si>
-  <si>
-    <t>Equipo veterano da un gran espectaculo</t>
-  </si>
-  <si>
-    <t>10-01-2029</t>
-  </si>
-  <si>
-    <t>05-04-2030</t>
-  </si>
-  <si>
-    <t>23-05-2022</t>
-  </si>
-  <si>
-    <t>10-10-2028</t>
-  </si>
-  <si>
-    <t>09-09-2024</t>
-  </si>
-  <si>
-    <t>01-12-2023</t>
-  </si>
-  <si>
-    <t>Title B1</t>
-  </si>
-  <si>
-    <t>Title B1.1</t>
-  </si>
-  <si>
-    <t>Subtitle 1</t>
-  </si>
-  <si>
-    <t>Static Row 7</t>
-  </si>
-  <si>
-    <t>Subtitle 2</t>
-  </si>
-  <si>
-    <t>Title B1.2</t>
-  </si>
-  <si>
-    <t>Title B1.3</t>
-  </si>
-  <si>
-    <t>Title B1.4</t>
-  </si>
-  <si>
-    <t>Title B1.5</t>
-  </si>
-  <si>
-    <t>Title B1.6</t>
-  </si>
-  <si>
-    <t>Title B1.7</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -214,11 +69,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -228,7 +83,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -239,7 +94,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -263,8 +118,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
       </font>
       <fill>
         <patternFill>
@@ -274,8 +129,8 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
-        <u/>
+        <b val="1"/>
+        <u val="single"/>
       </font>
       <fill>
         <patternFill>
@@ -292,7 +147,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -302,7 +157,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -333,7 +188,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -343,7 +198,7 @@
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill>
@@ -353,6 +208,74 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -640,1154 +563,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14.4" customWidth="1" min="1" max="1"/>
+    <col width="19.2" customWidth="1" min="2" max="2"/>
+    <col width="16.8" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="26.4" customWidth="1" min="5" max="5"/>
+    <col width="14.4" customWidth="1" min="6" max="6"/>
+    <col width="14.4" customWidth="1" min="7" max="7"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
+    <row r="1" ht="15" customHeight="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Title A1.1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Title A1.2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Title A1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="15" customHeight="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 1</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="n"/>
+      <c r="C2" s="1" t="n"/>
+    </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 2</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 3</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 4</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="n"/>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 5</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 6</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+    </row>
+    <row r="8" ht="15" customHeight="1"/>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Title A2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Subtitle A2.1</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Static Row 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1"/>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Subtitle A2.2</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Static Row 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1"/>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Subtitle A2.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Static Row 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1"/>
+    <row r="19" ht="15" customHeight="1">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Static Text: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque non laoreet mauris. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Curabitur vulputate bibendum nibh elementum pulvinar. Integer a leo in orci ultricies fermentum. Ut vitae velit et sapien congue accumsan sed tincidunt dui. Ut elementum imperdiet nunc, non hendrerit enim ultrices at. Sed rhoncus vehicula.</t>
+        </is>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1"/>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Titulo Static</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Content Status</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>Dato Static</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>Titulo</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Fecha de Publicacion</t>
+        </is>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 1</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 1</t>
+        </is>
+      </c>
+      <c r="D22" s="1" t="inlineStr">
+        <is>
+          <t>U.S. Robotics presenta hallazgo</t>
+        </is>
+      </c>
+      <c r="E22" s="1" t="inlineStr">
+        <is>
+          <t>10-01-2029</t>
+        </is>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 1</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 1</t>
+        </is>
+      </c>
+      <c r="D23" s="1" t="inlineStr">
+        <is>
+          <t>Se presenta el nuevo teléfono móvil en evento</t>
+        </is>
+      </c>
+      <c r="E23" s="1" t="inlineStr">
+        <is>
+          <t>05-04-2030</t>
+        </is>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 1</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 1</t>
+        </is>
+      </c>
+      <c r="D24" s="1" t="inlineStr">
+        <is>
+          <t>Se mejora la conducción autónoma de vehículos</t>
+        </is>
+      </c>
+      <c r="E24" s="1" t="inlineStr">
+        <is>
+          <t>23-05-2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 1</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 1</t>
+        </is>
+      </c>
+      <c r="D25" s="1" t="inlineStr">
+        <is>
+          <t>Fuccia OS sacude al mundo</t>
+        </is>
+      </c>
+      <c r="E25" s="1" t="inlineStr">
+        <is>
+          <t>10-10-2028</t>
+        </is>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 2</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 2</t>
+        </is>
+      </c>
+      <c r="D26" s="1" t="inlineStr">
+        <is>
+          <t>Tenemos campeona del mundial de volleiball</t>
+        </is>
+      </c>
+      <c r="E26" s="1" t="inlineStr">
+        <is>
+          <t>09-09-2024</t>
+        </is>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>Grupo de Datos 2</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="C27" s="1" t="inlineStr">
+        <is>
+          <t>Dato grupo 2</t>
+        </is>
+      </c>
+      <c r="D27" s="1" t="inlineStr">
+        <is>
+          <t>Equipo veterano da un gran espectaculo</t>
+        </is>
+      </c>
+      <c r="E27" s="1" t="inlineStr">
+        <is>
+          <t>01-12-2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1"/>
+    <row r="29" ht="15" customHeight="1">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>Title B1</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="15" customHeight="1">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.1</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.2</t>
+        </is>
+      </c>
+      <c r="C30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.3</t>
+        </is>
+      </c>
+      <c r="D30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.4</t>
+        </is>
+      </c>
+      <c r="E30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.5</t>
+        </is>
+      </c>
+      <c r="F30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.6</t>
+        </is>
+      </c>
+      <c r="G30" s="1" t="inlineStr">
+        <is>
+          <t>Title B1.7</t>
+        </is>
+      </c>
+    </row>
+    <row r="31" ht="15" customHeight="1">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>Subtitle 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="32" ht="15" customHeight="1">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 1</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n"/>
+      <c r="D32" s="1" t="n"/>
+      <c r="E32" s="1" t="n"/>
+      <c r="F32" s="1" t="n"/>
+      <c r="G32" s="1" t="n"/>
+    </row>
+    <row r="33" ht="15" customHeight="1">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 2</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n"/>
+      <c r="D33" s="1" t="n"/>
+      <c r="E33" s="1" t="n"/>
+      <c r="F33" s="1" t="n"/>
+      <c r="G33" s="1" t="n"/>
+    </row>
+    <row r="34" ht="15" customHeight="1">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 3</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n"/>
+      <c r="D34" s="1" t="n"/>
+      <c r="E34" s="1" t="n"/>
+      <c r="F34" s="1" t="n"/>
+      <c r="G34" s="1" t="n"/>
+    </row>
+    <row r="35" ht="15" customHeight="1">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 4</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n"/>
+      <c r="D35" s="1" t="n"/>
+      <c r="E35" s="1" t="n"/>
+      <c r="F35" s="1" t="n"/>
+      <c r="G35" s="1" t="n"/>
+    </row>
+    <row r="36" ht="15" customHeight="1">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 5</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="n"/>
+      <c r="C36" s="1" t="n"/>
+      <c r="D36" s="1" t="n"/>
+      <c r="E36" s="1" t="n"/>
+      <c r="F36" s="1" t="n"/>
+      <c r="G36" s="1" t="n"/>
+    </row>
+    <row r="37" ht="15" customHeight="1">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 6</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="n"/>
+      <c r="C37" s="1" t="n"/>
+      <c r="D37" s="1" t="n"/>
+      <c r="E37" s="1" t="n"/>
+      <c r="F37" s="1" t="n"/>
+      <c r="G37" s="1" t="n"/>
+    </row>
+    <row r="38" ht="15" customHeight="1">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 7</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="n"/>
+      <c r="C38" s="1" t="n"/>
+      <c r="D38" s="1" t="n"/>
+      <c r="E38" s="1" t="n"/>
+      <c r="F38" s="1" t="n"/>
+      <c r="G38" s="1" t="n"/>
+    </row>
+    <row r="39" ht="15" customHeight="1">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t>Subtitle 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40" ht="15" customHeight="1">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Static Row 1</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="n"/>
+      <c r="C40" s="1" t="n"/>
+      <c r="D40" s="1" t="n"/>
+      <c r="E40" s="1" t="n"/>
+      <c r="F40" s="1" t="n"/>
+      <c r="G40" s="1" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A9:G9"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A39:G39"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:G10">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="9">
+    <cfRule type="notContainsBlanks" priority="9" dxfId="5">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="10">
+    <cfRule type="notContainsBlanks" priority="10" dxfId="2">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="11">
+    <cfRule type="notContainsBlanks" priority="11" dxfId="2">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:G13">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
+    <cfRule type="notContainsBlanks" priority="12" dxfId="5">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:G14">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="13">
+    <cfRule type="notContainsBlanks" priority="13" dxfId="2">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:G15">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="14">
+    <cfRule type="notContainsBlanks" priority="14" dxfId="2">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:G16">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="15">
+    <cfRule type="notContainsBlanks" priority="15" dxfId="5">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="16">
+    <cfRule type="notContainsBlanks" priority="16" dxfId="2">
       <formula>LEN(TRIM(A17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:G18">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
+    <cfRule type="notContainsBlanks" priority="17" dxfId="2">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="notContainsBlanks" dxfId="2" priority="18">
+    <cfRule type="notContainsBlanks" priority="18" dxfId="2">
       <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+    <cfRule type="notContainsBlanks" priority="1" dxfId="0">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:E21">
-    <cfRule type="notContainsBlanks" dxfId="6" priority="19">
+    <cfRule type="notContainsBlanks" priority="19" dxfId="6">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="notContainsBlanks" dxfId="7" priority="21">
+    <cfRule type="notContainsBlanks" priority="21" dxfId="7">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="7" priority="22">
+    <cfRule type="containsBlanks" priority="22" dxfId="7">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="containsBlanks" dxfId="2" priority="20">
+    <cfRule type="containsBlanks" priority="20" dxfId="2">
       <formula>LEN(TRIM(A28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29">
-    <cfRule type="notContainsBlanks" dxfId="5" priority="31">
+    <cfRule type="notContainsBlanks" priority="31" dxfId="5">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
+    <cfRule type="notContainsBlanks" priority="2" dxfId="1">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" dxfId="12" priority="44">
+    <cfRule type="notContainsBlanks" priority="44" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="45">
+    <cfRule type="notContainsBlanks" priority="45" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="46">
+    <cfRule type="notContainsBlanks" priority="46" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="47">
+    <cfRule type="notContainsBlanks" priority="47" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="48">
+    <cfRule type="notContainsBlanks" priority="48" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="49">
+    <cfRule type="notContainsBlanks" priority="49" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" dxfId="12" priority="50">
+    <cfRule type="notContainsBlanks" priority="50" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="51">
+    <cfRule type="notContainsBlanks" priority="51" dxfId="13">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="64">
+    <cfRule type="notContainsBlanks" priority="64" dxfId="8">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="65">
+    <cfRule type="containsBlanks" priority="65" dxfId="8">
       <formula>LEN(TRIM(A32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="78">
+    <cfRule type="notContainsBlanks" priority="78" dxfId="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="79">
+    <cfRule type="containsBlanks" priority="79" dxfId="8">
       <formula>LEN(TRIM(A33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="92">
+    <cfRule type="notContainsBlanks" priority="92" dxfId="8">
       <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="93">
+    <cfRule type="containsBlanks" priority="93" dxfId="8">
       <formula>LEN(TRIM(A34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="106">
+    <cfRule type="notContainsBlanks" priority="106" dxfId="8">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="107">
+    <cfRule type="containsBlanks" priority="107" dxfId="8">
       <formula>LEN(TRIM(A35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="120">
+    <cfRule type="notContainsBlanks" priority="120" dxfId="8">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="121">
+    <cfRule type="containsBlanks" priority="121" dxfId="8">
       <formula>LEN(TRIM(A36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="134">
+    <cfRule type="notContainsBlanks" priority="134" dxfId="8">
       <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="135">
+    <cfRule type="containsBlanks" priority="135" dxfId="8">
       <formula>LEN(TRIM(A37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="148">
+    <cfRule type="notContainsBlanks" priority="148" dxfId="8">
       <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="149">
+    <cfRule type="containsBlanks" priority="149" dxfId="8">
       <formula>LEN(TRIM(A38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39">
-    <cfRule type="notContainsBlanks" dxfId="13" priority="162">
+    <cfRule type="notContainsBlanks" priority="162" dxfId="13">
       <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="notContainsBlanks" dxfId="8" priority="175">
+    <cfRule type="notContainsBlanks" priority="175" dxfId="8">
       <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="8" priority="176">
+    <cfRule type="containsBlanks" priority="176" dxfId="8">
       <formula>LEN(TRIM(A40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:G41">
-    <cfRule type="containsBlanks" dxfId="2" priority="189">
+    <cfRule type="containsBlanks" priority="189" dxfId="2">
       <formula>LEN(TRIM(A41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:G8">
-    <cfRule type="containsBlanks" dxfId="2" priority="3">
+    <cfRule type="containsBlanks" priority="3" dxfId="2">
       <formula>LEN(TRIM(A8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:G9">
-    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
+    <cfRule type="notContainsBlanks" priority="8" dxfId="4">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B28">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="standard">
+    <cfRule type="containsText" priority="23" operator="containsText" dxfId="8" text="standard">
       <formula>NOT(ISERROR(SEARCH("standard",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="not conventional">
+    <cfRule type="containsText" priority="24" operator="containsText" dxfId="9" text="not conventional">
       <formula>NOT(ISERROR(SEARCH("not conventional",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="32">
+    <cfRule type="notContainsBlanks" priority="32" dxfId="9">
       <formula>LEN(TRIM(B29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="33">
+    <cfRule type="containsBlanks" priority="33" dxfId="9">
       <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
+    <cfRule type="notContainsBlanks" priority="4" dxfId="3">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="3" priority="5">
+    <cfRule type="containsBlanks" priority="5" dxfId="3">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="52">
+    <cfRule type="notContainsBlanks" priority="52" dxfId="9">
       <formula>LEN(TRIM(B31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="53">
+    <cfRule type="containsBlanks" priority="53" dxfId="9">
       <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="66">
+    <cfRule type="notContainsBlanks" priority="66" dxfId="9">
       <formula>LEN(TRIM(B32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="67">
+    <cfRule type="containsBlanks" priority="67" dxfId="9">
       <formula>LEN(TRIM(B32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="80">
+    <cfRule type="notContainsBlanks" priority="80" dxfId="9">
       <formula>LEN(TRIM(B33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="81">
+    <cfRule type="containsBlanks" priority="81" dxfId="9">
       <formula>LEN(TRIM(B33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="94">
+    <cfRule type="notContainsBlanks" priority="94" dxfId="9">
       <formula>LEN(TRIM(B34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="95">
+    <cfRule type="containsBlanks" priority="95" dxfId="9">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="108">
+    <cfRule type="notContainsBlanks" priority="108" dxfId="9">
       <formula>LEN(TRIM(B35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="109">
+    <cfRule type="containsBlanks" priority="109" dxfId="9">
       <formula>LEN(TRIM(B35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="122">
+    <cfRule type="notContainsBlanks" priority="122" dxfId="9">
       <formula>LEN(TRIM(B36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="123">
+    <cfRule type="containsBlanks" priority="123" dxfId="9">
       <formula>LEN(TRIM(B36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="136">
+    <cfRule type="notContainsBlanks" priority="136" dxfId="9">
       <formula>LEN(TRIM(B37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="137">
+    <cfRule type="containsBlanks" priority="137" dxfId="9">
       <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="150">
+    <cfRule type="notContainsBlanks" priority="150" dxfId="9">
       <formula>LEN(TRIM(B38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="151">
+    <cfRule type="containsBlanks" priority="151" dxfId="9">
       <formula>LEN(TRIM(B38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="163">
+    <cfRule type="notContainsBlanks" priority="163" dxfId="9">
       <formula>LEN(TRIM(B39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="164">
+    <cfRule type="containsBlanks" priority="164" dxfId="9">
       <formula>LEN(TRIM(B39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="notContainsBlanks" dxfId="9" priority="177">
+    <cfRule type="notContainsBlanks" priority="177" dxfId="9">
       <formula>LEN(TRIM(B40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="9" priority="178">
+    <cfRule type="containsBlanks" priority="178" dxfId="9">
       <formula>LEN(TRIM(B40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C28">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="25">
+    <cfRule type="notContainsBlanks" priority="25" dxfId="10">
       <formula>LEN(TRIM(C22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="26">
+    <cfRule type="containsBlanks" priority="26" dxfId="10">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="34">
+    <cfRule type="notContainsBlanks" priority="34" dxfId="11">
       <formula>LEN(TRIM(C29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="35">
+    <cfRule type="containsBlanks" priority="35" dxfId="11">
       <formula>LEN(TRIM(C29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
+    <cfRule type="notContainsBlanks" priority="6" dxfId="1">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="1" priority="7">
+    <cfRule type="containsBlanks" priority="7" dxfId="1">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="54">
+    <cfRule type="notContainsBlanks" priority="54" dxfId="11">
       <formula>LEN(TRIM(C31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="55">
+    <cfRule type="containsBlanks" priority="55" dxfId="11">
       <formula>LEN(TRIM(C31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="68">
+    <cfRule type="notContainsBlanks" priority="68" dxfId="11">
       <formula>LEN(TRIM(C32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="69">
+    <cfRule type="containsBlanks" priority="69" dxfId="11">
       <formula>LEN(TRIM(C32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="82">
+    <cfRule type="notContainsBlanks" priority="82" dxfId="11">
       <formula>LEN(TRIM(C33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="83">
+    <cfRule type="containsBlanks" priority="83" dxfId="11">
       <formula>LEN(TRIM(C33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="96">
+    <cfRule type="notContainsBlanks" priority="96" dxfId="11">
       <formula>LEN(TRIM(C34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="97">
+    <cfRule type="containsBlanks" priority="97" dxfId="11">
       <formula>LEN(TRIM(C34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="110">
+    <cfRule type="notContainsBlanks" priority="110" dxfId="11">
       <formula>LEN(TRIM(C35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="111">
+    <cfRule type="containsBlanks" priority="111" dxfId="11">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="124">
+    <cfRule type="notContainsBlanks" priority="124" dxfId="11">
       <formula>LEN(TRIM(C36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="125">
+    <cfRule type="containsBlanks" priority="125" dxfId="11">
       <formula>LEN(TRIM(C36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="138">
+    <cfRule type="notContainsBlanks" priority="138" dxfId="11">
       <formula>LEN(TRIM(C37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="139">
+    <cfRule type="containsBlanks" priority="139" dxfId="11">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="152">
+    <cfRule type="notContainsBlanks" priority="152" dxfId="11">
       <formula>LEN(TRIM(C38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="153">
+    <cfRule type="containsBlanks" priority="153" dxfId="11">
       <formula>LEN(TRIM(C38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="165">
+    <cfRule type="notContainsBlanks" priority="165" dxfId="11">
       <formula>LEN(TRIM(C39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="166">
+    <cfRule type="containsBlanks" priority="166" dxfId="11">
       <formula>LEN(TRIM(C39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="179">
+    <cfRule type="notContainsBlanks" priority="179" dxfId="11">
       <formula>LEN(TRIM(C40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="180">
+    <cfRule type="containsBlanks" priority="180" dxfId="11">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D28">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="27">
+    <cfRule type="notContainsBlanks" priority="27" dxfId="10">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="28">
+    <cfRule type="containsBlanks" priority="28" dxfId="10">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="36">
+    <cfRule type="notContainsBlanks" priority="36" dxfId="11">
       <formula>LEN(TRIM(D29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="37">
+    <cfRule type="containsBlanks" priority="37" dxfId="11">
       <formula>LEN(TRIM(D29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="56">
+    <cfRule type="notContainsBlanks" priority="56" dxfId="11">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="57">
+    <cfRule type="containsBlanks" priority="57" dxfId="11">
       <formula>LEN(TRIM(D31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="70">
+    <cfRule type="notContainsBlanks" priority="70" dxfId="11">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="71">
+    <cfRule type="containsBlanks" priority="71" dxfId="11">
       <formula>LEN(TRIM(D32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="84">
+    <cfRule type="notContainsBlanks" priority="84" dxfId="11">
       <formula>LEN(TRIM(D33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="85">
+    <cfRule type="containsBlanks" priority="85" dxfId="11">
       <formula>LEN(TRIM(D33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="98">
+    <cfRule type="notContainsBlanks" priority="98" dxfId="11">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="99">
+    <cfRule type="containsBlanks" priority="99" dxfId="11">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="112">
+    <cfRule type="notContainsBlanks" priority="112" dxfId="11">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="113">
+    <cfRule type="containsBlanks" priority="113" dxfId="11">
       <formula>LEN(TRIM(D35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="126">
+    <cfRule type="notContainsBlanks" priority="126" dxfId="11">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="127">
+    <cfRule type="containsBlanks" priority="127" dxfId="11">
       <formula>LEN(TRIM(D36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="140">
+    <cfRule type="notContainsBlanks" priority="140" dxfId="11">
       <formula>LEN(TRIM(D37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="141">
+    <cfRule type="containsBlanks" priority="141" dxfId="11">
       <formula>LEN(TRIM(D37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="154">
+    <cfRule type="notContainsBlanks" priority="154" dxfId="11">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="155">
+    <cfRule type="containsBlanks" priority="155" dxfId="11">
       <formula>LEN(TRIM(D38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="167">
+    <cfRule type="notContainsBlanks" priority="167" dxfId="11">
       <formula>LEN(TRIM(D39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="168">
+    <cfRule type="containsBlanks" priority="168" dxfId="11">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="181">
+    <cfRule type="notContainsBlanks" priority="181" dxfId="11">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="182">
+    <cfRule type="containsBlanks" priority="182" dxfId="11">
       <formula>LEN(TRIM(D40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E28">
-    <cfRule type="notContainsBlanks" dxfId="10" priority="29">
+    <cfRule type="notContainsBlanks" priority="29" dxfId="10">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="10" priority="30">
+    <cfRule type="containsBlanks" priority="30" dxfId="10">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="38">
+    <cfRule type="notContainsBlanks" priority="38" dxfId="11">
       <formula>LEN(TRIM(E29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="39">
+    <cfRule type="containsBlanks" priority="39" dxfId="11">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="58">
+    <cfRule type="notContainsBlanks" priority="58" dxfId="11">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="59">
+    <cfRule type="containsBlanks" priority="59" dxfId="11">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="72">
+    <cfRule type="notContainsBlanks" priority="72" dxfId="11">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="73">
+    <cfRule type="containsBlanks" priority="73" dxfId="11">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="86">
+    <cfRule type="notContainsBlanks" priority="86" dxfId="11">
       <formula>LEN(TRIM(E33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="87">
+    <cfRule type="containsBlanks" priority="87" dxfId="11">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="100">
+    <cfRule type="notContainsBlanks" priority="100" dxfId="11">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="101">
+    <cfRule type="containsBlanks" priority="101" dxfId="11">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="114">
+    <cfRule type="notContainsBlanks" priority="114" dxfId="11">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="115">
+    <cfRule type="containsBlanks" priority="115" dxfId="11">
       <formula>LEN(TRIM(E35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="128">
+    <cfRule type="notContainsBlanks" priority="128" dxfId="11">
       <formula>LEN(TRIM(E36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="129">
+    <cfRule type="containsBlanks" priority="129" dxfId="11">
       <formula>LEN(TRIM(E36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="142">
+    <cfRule type="notContainsBlanks" priority="142" dxfId="11">
       <formula>LEN(TRIM(E37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="143">
+    <cfRule type="containsBlanks" priority="143" dxfId="11">
       <formula>LEN(TRIM(E37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="156">
+    <cfRule type="notContainsBlanks" priority="156" dxfId="11">
       <formula>LEN(TRIM(E38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="157">
+    <cfRule type="containsBlanks" priority="157" dxfId="11">
       <formula>LEN(TRIM(E38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="169">
+    <cfRule type="notContainsBlanks" priority="169" dxfId="11">
       <formula>LEN(TRIM(E39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="170">
+    <cfRule type="containsBlanks" priority="170" dxfId="11">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="183">
+    <cfRule type="notContainsBlanks" priority="183" dxfId="11">
       <formula>LEN(TRIM(E40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="184">
+    <cfRule type="containsBlanks" priority="184" dxfId="11">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="40">
+    <cfRule type="notContainsBlanks" priority="40" dxfId="11">
       <formula>LEN(TRIM(F29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="41">
+    <cfRule type="containsBlanks" priority="41" dxfId="11">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="60">
+    <cfRule type="notContainsBlanks" priority="60" dxfId="11">
       <formula>LEN(TRIM(F31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="61">
+    <cfRule type="containsBlanks" priority="61" dxfId="11">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="74">
+    <cfRule type="notContainsBlanks" priority="74" dxfId="11">
       <formula>LEN(TRIM(F32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="75">
+    <cfRule type="containsBlanks" priority="75" dxfId="11">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="88">
+    <cfRule type="notContainsBlanks" priority="88" dxfId="11">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="89">
+    <cfRule type="containsBlanks" priority="89" dxfId="11">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="102">
+    <cfRule type="notContainsBlanks" priority="102" dxfId="11">
       <formula>LEN(TRIM(F34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="103">
+    <cfRule type="containsBlanks" priority="103" dxfId="11">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="116">
+    <cfRule type="notContainsBlanks" priority="116" dxfId="11">
       <formula>LEN(TRIM(F35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="117">
+    <cfRule type="containsBlanks" priority="117" dxfId="11">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="130">
+    <cfRule type="notContainsBlanks" priority="130" dxfId="11">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="131">
+    <cfRule type="containsBlanks" priority="131" dxfId="11">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="144">
+    <cfRule type="notContainsBlanks" priority="144" dxfId="11">
       <formula>LEN(TRIM(F37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="145">
+    <cfRule type="containsBlanks" priority="145" dxfId="11">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="158">
+    <cfRule type="notContainsBlanks" priority="158" dxfId="11">
       <formula>LEN(TRIM(F38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="159">
+    <cfRule type="containsBlanks" priority="159" dxfId="11">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="171">
+    <cfRule type="notContainsBlanks" priority="171" dxfId="11">
       <formula>LEN(TRIM(F39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="172">
+    <cfRule type="containsBlanks" priority="172" dxfId="11">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="185">
+    <cfRule type="notContainsBlanks" priority="185" dxfId="11">
       <formula>LEN(TRIM(F40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="186">
+    <cfRule type="containsBlanks" priority="186" dxfId="11">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="42">
+    <cfRule type="notContainsBlanks" priority="42" dxfId="11">
       <formula>LEN(TRIM(G29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="43">
+    <cfRule type="containsBlanks" priority="43" dxfId="11">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="62">
+    <cfRule type="notContainsBlanks" priority="62" dxfId="11">
       <formula>LEN(TRIM(G31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="63">
+    <cfRule type="containsBlanks" priority="63" dxfId="11">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="76">
+    <cfRule type="notContainsBlanks" priority="76" dxfId="11">
       <formula>LEN(TRIM(G32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="77">
+    <cfRule type="containsBlanks" priority="77" dxfId="11">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="90">
+    <cfRule type="notContainsBlanks" priority="90" dxfId="11">
       <formula>LEN(TRIM(G33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="91">
+    <cfRule type="containsBlanks" priority="91" dxfId="11">
       <formula>LEN(TRIM(G33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="104">
+    <cfRule type="notContainsBlanks" priority="104" dxfId="11">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="105">
+    <cfRule type="containsBlanks" priority="105" dxfId="11">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="118">
+    <cfRule type="notContainsBlanks" priority="118" dxfId="11">
       <formula>LEN(TRIM(G35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="119">
+    <cfRule type="containsBlanks" priority="119" dxfId="11">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="132">
+    <cfRule type="notContainsBlanks" priority="132" dxfId="11">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="133">
+    <cfRule type="containsBlanks" priority="133" dxfId="11">
       <formula>LEN(TRIM(G36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="146">
+    <cfRule type="notContainsBlanks" priority="146" dxfId="11">
       <formula>LEN(TRIM(G37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="147">
+    <cfRule type="containsBlanks" priority="147" dxfId="11">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="160">
+    <cfRule type="notContainsBlanks" priority="160" dxfId="11">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="161">
+    <cfRule type="containsBlanks" priority="161" dxfId="11">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="173">
+    <cfRule type="notContainsBlanks" priority="173" dxfId="11">
       <formula>LEN(TRIM(G39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="174">
+    <cfRule type="containsBlanks" priority="174" dxfId="11">
       <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="notContainsBlanks" dxfId="11" priority="187">
+    <cfRule type="notContainsBlanks" priority="187" dxfId="11">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" dxfId="11" priority="188">
+    <cfRule type="containsBlanks" priority="188" dxfId="11">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -1,41 +1,186 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="47">
+  <si>
+    <t>Title A1.1</t>
+  </si>
+  <si>
+    <t>Static Row 1</t>
+  </si>
+  <si>
+    <t>Static Row 2</t>
+  </si>
+  <si>
+    <t>Static Row 3</t>
+  </si>
+  <si>
+    <t>Static Row 4</t>
+  </si>
+  <si>
+    <t>Static Row 5</t>
+  </si>
+  <si>
+    <t>Static Row 6</t>
+  </si>
+  <si>
+    <t>Title A1.2</t>
+  </si>
+  <si>
+    <t>Title A1.3</t>
+  </si>
+  <si>
+    <t>Title A2</t>
+  </si>
+  <si>
+    <t>Subtitle A2.1</t>
+  </si>
+  <si>
+    <t>Subtitle A2.2</t>
+  </si>
+  <si>
+    <t>Subtitle A2.3</t>
+  </si>
+  <si>
+    <t>Static Text: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque non laoreet mauris. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Curabitur vulputate bibendum nibh elementum pulvinar. Integer a leo in orci ultricies fermentum. Ut vitae velit et sapien congue accumsan sed tincidunt dui. Ut elementum imperdiet nunc, non hendrerit enim ultrices at. Sed rhoncus vehicula.</t>
+  </si>
+  <si>
+    <t>Titulo Static</t>
+  </si>
+  <si>
+    <t>Content Status</t>
+  </si>
+  <si>
+    <t>Dato Static</t>
+  </si>
+  <si>
+    <t>Titulo</t>
+  </si>
+  <si>
+    <t>Fecha de Publicacion</t>
+  </si>
+  <si>
+    <t>Grupo de Datos 1</t>
+  </si>
+  <si>
+    <t>Grupo de Datos 2</t>
+  </si>
+  <si>
+    <t>standard</t>
+  </si>
+  <si>
+    <t>Dato grupo 1</t>
+  </si>
+  <si>
+    <t>Dato grupo 2</t>
+  </si>
+  <si>
+    <t>U.S. Robotics presenta hallazgo</t>
+  </si>
+  <si>
+    <t>Se presenta el nuevo teléfono móvil en evento</t>
+  </si>
+  <si>
+    <t>Se mejora la conducción autónoma de vehículos</t>
+  </si>
+  <si>
+    <t>Fuccia OS sacude al mundo</t>
+  </si>
+  <si>
+    <t>Tenemos campeona del mundial de volleiball</t>
+  </si>
+  <si>
+    <t>Equipo veterano da un gran espectaculo</t>
+  </si>
+  <si>
+    <t>10-01-2029</t>
+  </si>
+  <si>
+    <t>05-04-2030</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
+  </si>
+  <si>
+    <t>10-10-2028</t>
+  </si>
+  <si>
+    <t>09-09-2024</t>
+  </si>
+  <si>
+    <t>01-12-2023</t>
+  </si>
+  <si>
+    <t>Title B1</t>
+  </si>
+  <si>
+    <t>Title B1.1</t>
+  </si>
+  <si>
+    <t>Subtitle 1</t>
+  </si>
+  <si>
+    <t>Static Row 7</t>
+  </si>
+  <si>
+    <t>Subtitle 2</t>
+  </si>
+  <si>
+    <t>Title B1.2</t>
+  </si>
+  <si>
+    <t>Title B1.3</t>
+  </si>
+  <si>
+    <t>Title B1.4</t>
+  </si>
+  <si>
+    <t>Title B1.5</t>
+  </si>
+  <si>
+    <t>Title B1.6</t>
+  </si>
+  <si>
+    <t>Title B1.7</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,11 +214,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -83,7 +228,7 @@
   <dxfs count="14">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color rgb="FFFFFFFF"/>
       </font>
       <fill>
@@ -94,7 +239,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -118,8 +263,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
       </font>
       <fill>
         <patternFill>
@@ -129,8 +274,8 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
-        <u val="single"/>
+        <b/>
+        <u/>
       </font>
       <fill>
         <patternFill>
@@ -147,7 +292,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -157,7 +302,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -188,7 +333,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -198,7 +343,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill>
@@ -208,74 +353,6 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -563,1297 +640,1154 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="14.4" customWidth="1" min="1" max="1"/>
-    <col width="19.2" customWidth="1" min="2" max="2"/>
-    <col width="16.8" customWidth="1" min="3" max="3"/>
-    <col width="40" customWidth="1" min="4" max="4"/>
-    <col width="26.4" customWidth="1" min="5" max="5"/>
-    <col width="14.4" customWidth="1" min="6" max="6"/>
-    <col width="14.4" customWidth="1" min="7" max="7"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" ht="15" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Title A1.1</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Title A1.2</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Title A1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="2" ht="15" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 1</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n"/>
-      <c r="C2" s="1" t="n"/>
-    </row>
-    <row r="3" ht="15" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 2</t>
-        </is>
-      </c>
-      <c r="B3" s="1" t="n"/>
-      <c r="C3" s="1" t="n"/>
-    </row>
-    <row r="4" ht="15" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 3</t>
-        </is>
-      </c>
-      <c r="B4" s="1" t="n"/>
-      <c r="C4" s="1" t="n"/>
-    </row>
-    <row r="5" ht="15" customHeight="1">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 4</t>
-        </is>
-      </c>
-      <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="n"/>
-    </row>
-    <row r="6" ht="15" customHeight="1">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 5</t>
-        </is>
-      </c>
-      <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="n"/>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 6</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="n"/>
-    </row>
-    <row r="8" ht="15" customHeight="1"/>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Title A2</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" ht="15" customHeight="1">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Subtitle A2.1</t>
-        </is>
-      </c>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Static Row 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1"/>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Subtitle A2.2</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Static Row 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" ht="15" customHeight="1"/>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Subtitle A2.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Static Row 3</t>
-        </is>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1"/>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Static Text: Lorem ipsum dolor sit amet, consectetur adipiscing elit. Quisque non laoreet mauris. Pellentesque habitant morbi tristique senectus et netus et malesuada fames ac turpis egestas. Curabitur vulputate bibendum nibh elementum pulvinar. Integer a leo in orci ultricies fermentum. Ut vitae velit et sapien congue accumsan sed tincidunt dui. Ut elementum imperdiet nunc, non hendrerit enim ultrices at. Sed rhoncus vehicula.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1"/>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" s="2" t="inlineStr">
-        <is>
-          <t>Titulo Static</t>
-        </is>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>Content Status</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Dato Static</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>Titulo</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>Fecha de Publicacion</t>
-        </is>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 1</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C22" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 1</t>
-        </is>
-      </c>
-      <c r="D22" s="1" t="inlineStr">
-        <is>
-          <t>U.S. Robotics presenta hallazgo</t>
-        </is>
-      </c>
-      <c r="E22" s="1" t="inlineStr">
-        <is>
-          <t>10-01-2029</t>
-        </is>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 1</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C23" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 1</t>
-        </is>
-      </c>
-      <c r="D23" s="1" t="inlineStr">
-        <is>
-          <t>Se presenta el nuevo teléfono móvil en evento</t>
-        </is>
-      </c>
-      <c r="E23" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2030</t>
-        </is>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 1</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C24" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 1</t>
-        </is>
-      </c>
-      <c r="D24" s="1" t="inlineStr">
-        <is>
-          <t>Se mejora la conducción autónoma de vehículos</t>
-        </is>
-      </c>
-      <c r="E24" s="1" t="inlineStr">
-        <is>
-          <t>23-05-2022</t>
-        </is>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 1</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C25" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 1</t>
-        </is>
-      </c>
-      <c r="D25" s="1" t="inlineStr">
-        <is>
-          <t>Fuccia OS sacude al mundo</t>
-        </is>
-      </c>
-      <c r="E25" s="1" t="inlineStr">
-        <is>
-          <t>10-10-2028</t>
-        </is>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 2</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 2</t>
-        </is>
-      </c>
-      <c r="D26" s="1" t="inlineStr">
-        <is>
-          <t>Tenemos campeona del mundial de volleiball</t>
-        </is>
-      </c>
-      <c r="E26" s="1" t="inlineStr">
-        <is>
-          <t>09-09-2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Grupo de Datos 2</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="C27" s="1" t="inlineStr">
-        <is>
-          <t>Dato grupo 2</t>
-        </is>
-      </c>
-      <c r="D27" s="1" t="inlineStr">
-        <is>
-          <t>Equipo veterano da un gran espectaculo</t>
-        </is>
-      </c>
-      <c r="E27" s="1" t="inlineStr">
-        <is>
-          <t>01-12-2023</t>
-        </is>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1"/>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Title B1</t>
-        </is>
-      </c>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.1</t>
-        </is>
-      </c>
-      <c r="B30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.2</t>
-        </is>
-      </c>
-      <c r="C30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.3</t>
-        </is>
-      </c>
-      <c r="D30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.4</t>
-        </is>
-      </c>
-      <c r="E30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.5</t>
-        </is>
-      </c>
-      <c r="F30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.6</t>
-        </is>
-      </c>
-      <c r="G30" s="1" t="inlineStr">
-        <is>
-          <t>Title B1.7</t>
-        </is>
-      </c>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Subtitle 1</t>
-        </is>
-      </c>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 1</t>
-        </is>
-      </c>
-      <c r="B32" s="1" t="n"/>
-      <c r="C32" s="1" t="n"/>
-      <c r="D32" s="1" t="n"/>
-      <c r="E32" s="1" t="n"/>
-      <c r="F32" s="1" t="n"/>
-      <c r="G32" s="1" t="n"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 2</t>
-        </is>
-      </c>
-      <c r="B33" s="1" t="n"/>
-      <c r="C33" s="1" t="n"/>
-      <c r="D33" s="1" t="n"/>
-      <c r="E33" s="1" t="n"/>
-      <c r="F33" s="1" t="n"/>
-      <c r="G33" s="1" t="n"/>
-    </row>
-    <row r="34" ht="15" customHeight="1">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 3</t>
-        </is>
-      </c>
-      <c r="B34" s="1" t="n"/>
-      <c r="C34" s="1" t="n"/>
-      <c r="D34" s="1" t="n"/>
-      <c r="E34" s="1" t="n"/>
-      <c r="F34" s="1" t="n"/>
-      <c r="G34" s="1" t="n"/>
-    </row>
-    <row r="35" ht="15" customHeight="1">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 4</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="n"/>
-      <c r="C35" s="1" t="n"/>
-      <c r="D35" s="1" t="n"/>
-      <c r="E35" s="1" t="n"/>
-      <c r="F35" s="1" t="n"/>
-      <c r="G35" s="1" t="n"/>
-    </row>
-    <row r="36" ht="15" customHeight="1">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 5</t>
-        </is>
-      </c>
-      <c r="B36" s="1" t="n"/>
-      <c r="C36" s="1" t="n"/>
-      <c r="D36" s="1" t="n"/>
-      <c r="E36" s="1" t="n"/>
-      <c r="F36" s="1" t="n"/>
-      <c r="G36" s="1" t="n"/>
-    </row>
-    <row r="37" ht="15" customHeight="1">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 6</t>
-        </is>
-      </c>
-      <c r="B37" s="1" t="n"/>
-      <c r="C37" s="1" t="n"/>
-      <c r="D37" s="1" t="n"/>
-      <c r="E37" s="1" t="n"/>
-      <c r="F37" s="1" t="n"/>
-      <c r="G37" s="1" t="n"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 7</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="n"/>
-      <c r="C38" s="1" t="n"/>
-      <c r="D38" s="1" t="n"/>
-      <c r="E38" s="1" t="n"/>
-      <c r="F38" s="1" t="n"/>
-      <c r="G38" s="1" t="n"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>Subtitle 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Static Row 1</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="n"/>
-      <c r="C40" s="1" t="n"/>
-      <c r="D40" s="1" t="n"/>
-      <c r="E40" s="1" t="n"/>
-      <c r="F40" s="1" t="n"/>
-      <c r="G40" s="1" t="n"/>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="A12:G12"/>
     <mergeCell ref="A13:G13"/>
     <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A17:G17"/>
     <mergeCell ref="A18:G18"/>
-    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="A29:G29"/>
     <mergeCell ref="A31:G31"/>
     <mergeCell ref="A39:G39"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="A10:G10"/>
   </mergeCells>
   <conditionalFormatting sqref="A10:G10">
-    <cfRule type="notContainsBlanks" priority="9" dxfId="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="9">
       <formula>LEN(TRIM(A10))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11:G11">
-    <cfRule type="notContainsBlanks" priority="10" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="10">
       <formula>LEN(TRIM(A11))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A12:G12">
-    <cfRule type="notContainsBlanks" priority="11" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="11">
       <formula>LEN(TRIM(A12))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13:G13">
-    <cfRule type="notContainsBlanks" priority="12" dxfId="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="12">
       <formula>LEN(TRIM(A13))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A14:G14">
-    <cfRule type="notContainsBlanks" priority="13" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="13">
       <formula>LEN(TRIM(A14))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15:G15">
-    <cfRule type="notContainsBlanks" priority="14" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="14">
       <formula>LEN(TRIM(A15))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A16:G16">
-    <cfRule type="notContainsBlanks" priority="15" dxfId="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="15">
       <formula>LEN(TRIM(A16))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A17:G17">
-    <cfRule type="notContainsBlanks" priority="16" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="16">
       <formula>LEN(TRIM(A17))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A18:G18">
-    <cfRule type="notContainsBlanks" priority="17" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="17">
       <formula>LEN(TRIM(A18))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A19:G19">
-    <cfRule type="notContainsBlanks" priority="18" dxfId="2">
+    <cfRule type="notContainsBlanks" dxfId="2" priority="18">
       <formula>LEN(TRIM(A19))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1:C1">
-    <cfRule type="notContainsBlanks" priority="1" dxfId="0">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21:E21">
-    <cfRule type="notContainsBlanks" priority="19" dxfId="6">
+    <cfRule type="notContainsBlanks" dxfId="6" priority="19">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A22:A28">
-    <cfRule type="notContainsBlanks" priority="21" dxfId="7">
+    <cfRule type="notContainsBlanks" dxfId="7" priority="21">
       <formula>LEN(TRIM(A22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="22" dxfId="7">
+    <cfRule type="containsBlanks" dxfId="7" priority="22">
       <formula>LEN(TRIM(A22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28:G28">
-    <cfRule type="containsBlanks" priority="20" dxfId="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="20">
       <formula>LEN(TRIM(A28))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29">
-    <cfRule type="notContainsBlanks" priority="31" dxfId="5">
+    <cfRule type="notContainsBlanks" dxfId="5" priority="31">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:A8">
-    <cfRule type="notContainsBlanks" priority="2" dxfId="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="2">
       <formula>LEN(TRIM(A2))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" priority="44" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="44">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="45" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="45">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="46" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="46">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="47" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="47">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="48" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="48">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="49" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="49">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
-    <cfRule type="notContainsBlanks" priority="50" dxfId="12">
+    <cfRule type="notContainsBlanks" dxfId="12" priority="50">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" priority="51" dxfId="13">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="51">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="notContainsBlanks" priority="64" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="64">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="65">
       <formula>LEN(TRIM(A32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" priority="78" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="78">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="79" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="79">
       <formula>LEN(TRIM(A33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="notContainsBlanks" priority="92" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="92">
       <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="93" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="93">
       <formula>LEN(TRIM(A34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="notContainsBlanks" priority="106" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="106">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="107" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="107">
       <formula>LEN(TRIM(A35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" priority="120" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="120">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="121" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="121">
       <formula>LEN(TRIM(A36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="notContainsBlanks" priority="134" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="134">
       <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="135" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="135">
       <formula>LEN(TRIM(A37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="notContainsBlanks" priority="148" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="148">
       <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="149" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="149">
       <formula>LEN(TRIM(A38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39">
-    <cfRule type="notContainsBlanks" priority="162" dxfId="13">
+    <cfRule type="notContainsBlanks" dxfId="13" priority="162">
       <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="notContainsBlanks" priority="175" dxfId="8">
+    <cfRule type="notContainsBlanks" dxfId="8" priority="175">
       <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="176" dxfId="8">
+    <cfRule type="containsBlanks" dxfId="8" priority="176">
       <formula>LEN(TRIM(A40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:G41">
-    <cfRule type="containsBlanks" priority="189" dxfId="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="189">
       <formula>LEN(TRIM(A41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:G8">
-    <cfRule type="containsBlanks" priority="3" dxfId="2">
+    <cfRule type="containsBlanks" dxfId="2" priority="3">
       <formula>LEN(TRIM(A8))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9:G9">
-    <cfRule type="notContainsBlanks" priority="8" dxfId="4">
+    <cfRule type="notContainsBlanks" dxfId="4" priority="8">
       <formula>LEN(TRIM(A9))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B28">
-    <cfRule type="containsText" priority="23" operator="containsText" dxfId="8" text="standard">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="standard">
       <formula>NOT(ISERROR(SEARCH("standard",B22)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="24" operator="containsText" dxfId="9" text="not conventional">
+    <cfRule type="containsText" dxfId="9" priority="24" operator="containsText" text="not conventional">
       <formula>NOT(ISERROR(SEARCH("not conventional",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="notContainsBlanks" priority="32" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="32">
       <formula>LEN(TRIM(B29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="33" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="33">
       <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B8">
-    <cfRule type="notContainsBlanks" priority="4" dxfId="3">
+    <cfRule type="notContainsBlanks" dxfId="3" priority="4">
       <formula>LEN(TRIM(B2))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="5" dxfId="3">
+    <cfRule type="containsBlanks" dxfId="3" priority="5">
       <formula>LEN(TRIM(B2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="notContainsBlanks" priority="52" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="52">
       <formula>LEN(TRIM(B31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="53" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="53">
       <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="notContainsBlanks" priority="66" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="66">
       <formula>LEN(TRIM(B32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="67" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="67">
       <formula>LEN(TRIM(B32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="notContainsBlanks" priority="80" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="80">
       <formula>LEN(TRIM(B33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="81" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="81">
       <formula>LEN(TRIM(B33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="notContainsBlanks" priority="94" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="94">
       <formula>LEN(TRIM(B34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="95" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="95">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="notContainsBlanks" priority="108" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="108">
       <formula>LEN(TRIM(B35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="109" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="109">
       <formula>LEN(TRIM(B35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="notContainsBlanks" priority="122" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="122">
       <formula>LEN(TRIM(B36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="123" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="123">
       <formula>LEN(TRIM(B36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="notContainsBlanks" priority="136" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="136">
       <formula>LEN(TRIM(B37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="137" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="137">
       <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="notContainsBlanks" priority="150" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="150">
       <formula>LEN(TRIM(B38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="151" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="151">
       <formula>LEN(TRIM(B38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="notContainsBlanks" priority="163" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="163">
       <formula>LEN(TRIM(B39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="164" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="164">
       <formula>LEN(TRIM(B39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="notContainsBlanks" priority="177" dxfId="9">
+    <cfRule type="notContainsBlanks" dxfId="9" priority="177">
       <formula>LEN(TRIM(B40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="178" dxfId="9">
+    <cfRule type="containsBlanks" dxfId="9" priority="178">
       <formula>LEN(TRIM(B40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C28">
-    <cfRule type="notContainsBlanks" priority="25" dxfId="10">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="25">
       <formula>LEN(TRIM(C22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="26" dxfId="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="26">
       <formula>LEN(TRIM(C22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="notContainsBlanks" priority="34" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="34">
       <formula>LEN(TRIM(C29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="35" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="35">
       <formula>LEN(TRIM(C29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C8">
-    <cfRule type="notContainsBlanks" priority="6" dxfId="1">
+    <cfRule type="notContainsBlanks" dxfId="1" priority="6">
       <formula>LEN(TRIM(C2))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="7" dxfId="1">
+    <cfRule type="containsBlanks" dxfId="1" priority="7">
       <formula>LEN(TRIM(C2))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="notContainsBlanks" priority="54" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="54">
       <formula>LEN(TRIM(C31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="55" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="55">
       <formula>LEN(TRIM(C31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="notContainsBlanks" priority="68" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="68">
       <formula>LEN(TRIM(C32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="69" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="69">
       <formula>LEN(TRIM(C32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="notContainsBlanks" priority="82" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="82">
       <formula>LEN(TRIM(C33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="83" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="83">
       <formula>LEN(TRIM(C33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="notContainsBlanks" priority="96" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="96">
       <formula>LEN(TRIM(C34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="97" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="97">
       <formula>LEN(TRIM(C34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="notContainsBlanks" priority="110" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="110">
       <formula>LEN(TRIM(C35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="111" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="111">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="notContainsBlanks" priority="124" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="124">
       <formula>LEN(TRIM(C36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="125" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="125">
       <formula>LEN(TRIM(C36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="notContainsBlanks" priority="138" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="138">
       <formula>LEN(TRIM(C37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="139" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="139">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="notContainsBlanks" priority="152" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="152">
       <formula>LEN(TRIM(C38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="153" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="153">
       <formula>LEN(TRIM(C38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="notContainsBlanks" priority="165" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="165">
       <formula>LEN(TRIM(C39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="166" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="166">
       <formula>LEN(TRIM(C39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="notContainsBlanks" priority="179" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="179">
       <formula>LEN(TRIM(C40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="180" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="180">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D22:D28">
-    <cfRule type="notContainsBlanks" priority="27" dxfId="10">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="27">
       <formula>LEN(TRIM(D22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="28" dxfId="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="28">
       <formula>LEN(TRIM(D22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="notContainsBlanks" priority="36" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="36">
       <formula>LEN(TRIM(D29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="37" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="37">
       <formula>LEN(TRIM(D29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="notContainsBlanks" priority="56" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="56">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="57">
       <formula>LEN(TRIM(D31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="notContainsBlanks" priority="70" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="70">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="71" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="71">
       <formula>LEN(TRIM(D32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsBlanks" priority="84" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="84">
       <formula>LEN(TRIM(D33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="85" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="85">
       <formula>LEN(TRIM(D33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="notContainsBlanks" priority="98" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="98">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="99" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="99">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="notContainsBlanks" priority="112" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="112">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="113" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="113">
       <formula>LEN(TRIM(D35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="notContainsBlanks" priority="126" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="126">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="127" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="127">
       <formula>LEN(TRIM(D36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="notContainsBlanks" priority="140" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="140">
       <formula>LEN(TRIM(D37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="141" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="141">
       <formula>LEN(TRIM(D37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="notContainsBlanks" priority="154" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="154">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="155" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="155">
       <formula>LEN(TRIM(D38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="notContainsBlanks" priority="167" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="167">
       <formula>LEN(TRIM(D39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="168" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="168">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="notContainsBlanks" priority="181" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="181">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="182" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="182">
       <formula>LEN(TRIM(D40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E28">
-    <cfRule type="notContainsBlanks" priority="29" dxfId="10">
+    <cfRule type="notContainsBlanks" dxfId="10" priority="29">
       <formula>LEN(TRIM(E22))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="30" dxfId="10">
+    <cfRule type="containsBlanks" dxfId="10" priority="30">
       <formula>LEN(TRIM(E22))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsBlanks" priority="38" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="38">
       <formula>LEN(TRIM(E29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="39" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="39">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsBlanks" priority="58" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="58">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="59" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="59">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="notContainsBlanks" priority="72" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="72">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="73" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="73">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="notContainsBlanks" priority="86" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="86">
       <formula>LEN(TRIM(E33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="87" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="87">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="notContainsBlanks" priority="100" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="100">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="101" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="101">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="notContainsBlanks" priority="114" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="114">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="115" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="115">
       <formula>LEN(TRIM(E35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="notContainsBlanks" priority="128" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="128">
       <formula>LEN(TRIM(E36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="129" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="129">
       <formula>LEN(TRIM(E36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="notContainsBlanks" priority="142" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="142">
       <formula>LEN(TRIM(E37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="143" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="143">
       <formula>LEN(TRIM(E37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="notContainsBlanks" priority="156" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="156">
       <formula>LEN(TRIM(E38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="157" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="157">
       <formula>LEN(TRIM(E38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="notContainsBlanks" priority="169" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="169">
       <formula>LEN(TRIM(E39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="170" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="170">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="notContainsBlanks" priority="183" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="183">
       <formula>LEN(TRIM(E40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="184" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="184">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsBlanks" priority="40" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="40">
       <formula>LEN(TRIM(F29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="41" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="41">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsBlanks" priority="60" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="60">
       <formula>LEN(TRIM(F31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="61">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsBlanks" priority="74" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="74">
       <formula>LEN(TRIM(F32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="75" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="75">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="notContainsBlanks" priority="88" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="88">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="89" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="89">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="notContainsBlanks" priority="102" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="102">
       <formula>LEN(TRIM(F34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="103" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="103">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="notContainsBlanks" priority="116" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="116">
       <formula>LEN(TRIM(F35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="117" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="117">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" priority="130" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="130">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="131" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="131">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="notContainsBlanks" priority="144" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="144">
       <formula>LEN(TRIM(F37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="145" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="145">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="notContainsBlanks" priority="158" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="158">
       <formula>LEN(TRIM(F38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="159" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="159">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="notContainsBlanks" priority="171" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="171">
       <formula>LEN(TRIM(F39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="172" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="172">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="notContainsBlanks" priority="185" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="185">
       <formula>LEN(TRIM(F40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="186" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="186">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="notContainsBlanks" priority="42" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="42">
       <formula>LEN(TRIM(G29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="43" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="43">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="notContainsBlanks" priority="62" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="62">
       <formula>LEN(TRIM(G31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="63" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="63">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="notContainsBlanks" priority="76" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="76">
       <formula>LEN(TRIM(G32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="77" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="77">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="notContainsBlanks" priority="90" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="90">
       <formula>LEN(TRIM(G33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="91" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="91">
       <formula>LEN(TRIM(G33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="notContainsBlanks" priority="104" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="104">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="105" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="105">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="notContainsBlanks" priority="118" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="118">
       <formula>LEN(TRIM(G35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="119" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="119">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" priority="132" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="132">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="133" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="133">
       <formula>LEN(TRIM(G36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="notContainsBlanks" priority="146" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="146">
       <formula>LEN(TRIM(G37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="147" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="147">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="notContainsBlanks" priority="160" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="160">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="161" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="161">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="notContainsBlanks" priority="173" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="173">
       <formula>LEN(TRIM(G39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="174" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="174">
       <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="notContainsBlanks" priority="187" dxfId="11">
+    <cfRule type="notContainsBlanks" dxfId="11" priority="187">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="188" dxfId="11">
+    <cfRule type="containsBlanks" dxfId="11" priority="188">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -576,13 +576,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="1" customWidth="1" min="1" max="1"/>
-    <col width="1.4" customWidth="1" min="2" max="2"/>
-    <col width="1.2" customWidth="1" min="3" max="3"/>
-    <col width="4.5" customWidth="1" min="4" max="4"/>
-    <col width="2" customWidth="1" min="5" max="5"/>
-    <col width="1" customWidth="1" min="6" max="6"/>
-    <col width="1" customWidth="1" min="7" max="7"/>
+    <col width="16.8" customWidth="1" min="1" max="1"/>
+    <col width="20.8" customWidth="1" min="2" max="2"/>
+    <col width="18.2" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="28.6" customWidth="1" min="5" max="5"/>
+    <col width="15.6" customWidth="1" min="6" max="6"/>
+    <col width="15.6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
+++ b/1.-Data Science/0.-Archivos_Ejercicios_Python/23.-GUI PyQt5 Conexion DataBase/23.-Reporte Analisis de Datos 1.xlsx
@@ -581,7 +581,7 @@
     <col width="18.2" customWidth="1" min="3" max="3"/>
     <col width="40" customWidth="1" min="4" max="4"/>
     <col width="28.6" customWidth="1" min="5" max="5"/>
-    <col width="15.6" customWidth="1" min="6" max="6"/>
+    <col width="19.5" customWidth="1" min="6" max="6"/>
     <col width="15.6" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
@@ -743,6 +743,11 @@
           <t>Fecha de Publicacion</t>
         </is>
       </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>Static Column</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -770,6 +775,11 @@
           <t>10-01-2029</t>
         </is>
       </c>
+      <c r="F22" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -797,6 +807,11 @@
           <t>05-04-2030</t>
         </is>
       </c>
+      <c r="F23" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -824,6 +839,11 @@
           <t>23-05-2022</t>
         </is>
       </c>
+      <c r="F24" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -851,6 +871,11 @@
           <t>10-10-2028</t>
         </is>
       </c>
+      <c r="F25" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -878,6 +903,11 @@
           <t>09-09-2024</t>
         </is>
       </c>
+      <c r="F26" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -903,6 +933,11 @@
       <c r="E27" s="1" t="inlineStr">
         <is>
           <t>01-12-2023</t>
+        </is>
+      </c>
+      <c r="F27" s="1" t="inlineStr">
+        <is>
+          <t>Static Text</t>
         </is>
       </c>
     </row>
@@ -1141,7 +1176,7 @@
       <formula>LEN(TRIM(A1))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A21:E21">
+  <conditionalFormatting sqref="A21:F21">
     <cfRule type="notContainsBlanks" priority="19" dxfId="6">
       <formula>LEN(TRIM(A21))&gt;0</formula>
     </cfRule>
@@ -1160,7 +1195,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:G29">
-    <cfRule type="notContainsBlanks" priority="31" dxfId="5">
+    <cfRule type="notContainsBlanks" priority="33" dxfId="5">
       <formula>LEN(TRIM(A29))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1170,12 +1205,6 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A30:G30">
-    <cfRule type="notContainsBlanks" priority="44" dxfId="12">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
-    <cfRule type="notContainsBlanks" priority="45" dxfId="12">
-      <formula>LEN(TRIM(A30))&gt;0</formula>
-    </cfRule>
     <cfRule type="notContainsBlanks" priority="46" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
@@ -1191,83 +1220,89 @@
     <cfRule type="notContainsBlanks" priority="50" dxfId="12">
       <formula>LEN(TRIM(A30))&gt;0</formula>
     </cfRule>
+    <cfRule type="notContainsBlanks" priority="51" dxfId="12">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
+    <cfRule type="notContainsBlanks" priority="52" dxfId="12">
+      <formula>LEN(TRIM(A30))&gt;0</formula>
+    </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A31:G31">
-    <cfRule type="notContainsBlanks" priority="51" dxfId="13">
+    <cfRule type="notContainsBlanks" priority="53" dxfId="13">
       <formula>LEN(TRIM(A31))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A32">
-    <cfRule type="notContainsBlanks" priority="64" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="66" dxfId="8">
       <formula>LEN(TRIM(A32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="65" dxfId="8">
+    <cfRule type="containsBlanks" priority="67" dxfId="8">
       <formula>LEN(TRIM(A32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A33">
-    <cfRule type="notContainsBlanks" priority="78" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="80" dxfId="8">
       <formula>LEN(TRIM(A33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="79" dxfId="8">
+    <cfRule type="containsBlanks" priority="81" dxfId="8">
       <formula>LEN(TRIM(A33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A34">
-    <cfRule type="notContainsBlanks" priority="92" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="94" dxfId="8">
       <formula>LEN(TRIM(A34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="93" dxfId="8">
+    <cfRule type="containsBlanks" priority="95" dxfId="8">
       <formula>LEN(TRIM(A34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A35">
-    <cfRule type="notContainsBlanks" priority="106" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="108" dxfId="8">
       <formula>LEN(TRIM(A35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="107" dxfId="8">
+    <cfRule type="containsBlanks" priority="109" dxfId="8">
       <formula>LEN(TRIM(A35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A36">
-    <cfRule type="notContainsBlanks" priority="120" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="122" dxfId="8">
       <formula>LEN(TRIM(A36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="121" dxfId="8">
+    <cfRule type="containsBlanks" priority="123" dxfId="8">
       <formula>LEN(TRIM(A36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A37">
-    <cfRule type="notContainsBlanks" priority="134" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="136" dxfId="8">
       <formula>LEN(TRIM(A37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="135" dxfId="8">
+    <cfRule type="containsBlanks" priority="137" dxfId="8">
       <formula>LEN(TRIM(A37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A38">
-    <cfRule type="notContainsBlanks" priority="148" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="150" dxfId="8">
       <formula>LEN(TRIM(A38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="149" dxfId="8">
+    <cfRule type="containsBlanks" priority="151" dxfId="8">
       <formula>LEN(TRIM(A38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A39:G39">
-    <cfRule type="notContainsBlanks" priority="162" dxfId="13">
+    <cfRule type="notContainsBlanks" priority="164" dxfId="13">
       <formula>LEN(TRIM(A39))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A40">
-    <cfRule type="notContainsBlanks" priority="175" dxfId="8">
+    <cfRule type="notContainsBlanks" priority="177" dxfId="8">
       <formula>LEN(TRIM(A40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="176" dxfId="8">
+    <cfRule type="containsBlanks" priority="178" dxfId="8">
       <formula>LEN(TRIM(A40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A41:G41">
-    <cfRule type="containsBlanks" priority="189" dxfId="2">
+    <cfRule type="containsBlanks" priority="191" dxfId="2">
       <formula>LEN(TRIM(A41))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1290,10 +1325,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="notContainsBlanks" priority="32" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="34" dxfId="9">
       <formula>LEN(TRIM(B29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="33" dxfId="9">
+    <cfRule type="containsBlanks" priority="35" dxfId="9">
       <formula>LEN(TRIM(B29))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1306,82 +1341,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B31">
-    <cfRule type="notContainsBlanks" priority="52" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="54" dxfId="9">
       <formula>LEN(TRIM(B31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="53" dxfId="9">
+    <cfRule type="containsBlanks" priority="55" dxfId="9">
       <formula>LEN(TRIM(B31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32">
-    <cfRule type="notContainsBlanks" priority="66" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="68" dxfId="9">
       <formula>LEN(TRIM(B32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="67" dxfId="9">
+    <cfRule type="containsBlanks" priority="69" dxfId="9">
       <formula>LEN(TRIM(B32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B33">
-    <cfRule type="notContainsBlanks" priority="80" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="82" dxfId="9">
       <formula>LEN(TRIM(B33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="81" dxfId="9">
+    <cfRule type="containsBlanks" priority="83" dxfId="9">
       <formula>LEN(TRIM(B33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B34">
-    <cfRule type="notContainsBlanks" priority="94" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="96" dxfId="9">
       <formula>LEN(TRIM(B34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="95" dxfId="9">
+    <cfRule type="containsBlanks" priority="97" dxfId="9">
       <formula>LEN(TRIM(B34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B35">
-    <cfRule type="notContainsBlanks" priority="108" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="110" dxfId="9">
       <formula>LEN(TRIM(B35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="109" dxfId="9">
+    <cfRule type="containsBlanks" priority="111" dxfId="9">
       <formula>LEN(TRIM(B35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B36">
-    <cfRule type="notContainsBlanks" priority="122" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="124" dxfId="9">
       <formula>LEN(TRIM(B36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="123" dxfId="9">
+    <cfRule type="containsBlanks" priority="125" dxfId="9">
       <formula>LEN(TRIM(B36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="notContainsBlanks" priority="136" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="138" dxfId="9">
       <formula>LEN(TRIM(B37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="137" dxfId="9">
+    <cfRule type="containsBlanks" priority="139" dxfId="9">
       <formula>LEN(TRIM(B37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="notContainsBlanks" priority="150" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="152" dxfId="9">
       <formula>LEN(TRIM(B38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="151" dxfId="9">
+    <cfRule type="containsBlanks" priority="153" dxfId="9">
       <formula>LEN(TRIM(B38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B39">
-    <cfRule type="notContainsBlanks" priority="163" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="165" dxfId="9">
       <formula>LEN(TRIM(B39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="164" dxfId="9">
+    <cfRule type="containsBlanks" priority="166" dxfId="9">
       <formula>LEN(TRIM(B39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40">
-    <cfRule type="notContainsBlanks" priority="177" dxfId="9">
+    <cfRule type="notContainsBlanks" priority="179" dxfId="9">
       <formula>LEN(TRIM(B40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="178" dxfId="9">
+    <cfRule type="containsBlanks" priority="180" dxfId="9">
       <formula>LEN(TRIM(B40))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1394,10 +1429,10 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29">
-    <cfRule type="notContainsBlanks" priority="34" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="36" dxfId="11">
       <formula>LEN(TRIM(C29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="35" dxfId="11">
+    <cfRule type="containsBlanks" priority="37" dxfId="11">
       <formula>LEN(TRIM(C29))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1410,82 +1445,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31">
-    <cfRule type="notContainsBlanks" priority="54" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="56" dxfId="11">
       <formula>LEN(TRIM(C31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="55" dxfId="11">
+    <cfRule type="containsBlanks" priority="57" dxfId="11">
       <formula>LEN(TRIM(C31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C32">
-    <cfRule type="notContainsBlanks" priority="68" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="70" dxfId="11">
       <formula>LEN(TRIM(C32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="69" dxfId="11">
+    <cfRule type="containsBlanks" priority="71" dxfId="11">
       <formula>LEN(TRIM(C32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C33">
-    <cfRule type="notContainsBlanks" priority="82" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="84" dxfId="11">
       <formula>LEN(TRIM(C33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="83" dxfId="11">
+    <cfRule type="containsBlanks" priority="85" dxfId="11">
       <formula>LEN(TRIM(C33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C34">
-    <cfRule type="notContainsBlanks" priority="96" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="98" dxfId="11">
       <formula>LEN(TRIM(C34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="97" dxfId="11">
+    <cfRule type="containsBlanks" priority="99" dxfId="11">
       <formula>LEN(TRIM(C34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C35">
-    <cfRule type="notContainsBlanks" priority="110" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="112" dxfId="11">
       <formula>LEN(TRIM(C35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="111" dxfId="11">
+    <cfRule type="containsBlanks" priority="113" dxfId="11">
       <formula>LEN(TRIM(C35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C36">
-    <cfRule type="notContainsBlanks" priority="124" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="126" dxfId="11">
       <formula>LEN(TRIM(C36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="125" dxfId="11">
+    <cfRule type="containsBlanks" priority="127" dxfId="11">
       <formula>LEN(TRIM(C36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C37">
-    <cfRule type="notContainsBlanks" priority="138" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="140" dxfId="11">
       <formula>LEN(TRIM(C37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="139" dxfId="11">
+    <cfRule type="containsBlanks" priority="141" dxfId="11">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C38">
-    <cfRule type="notContainsBlanks" priority="152" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="154" dxfId="11">
       <formula>LEN(TRIM(C38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="153" dxfId="11">
+    <cfRule type="containsBlanks" priority="155" dxfId="11">
       <formula>LEN(TRIM(C38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C39">
-    <cfRule type="notContainsBlanks" priority="165" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="167" dxfId="11">
       <formula>LEN(TRIM(C39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="166" dxfId="11">
+    <cfRule type="containsBlanks" priority="168" dxfId="11">
       <formula>LEN(TRIM(C39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C40">
-    <cfRule type="notContainsBlanks" priority="179" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="181" dxfId="11">
       <formula>LEN(TRIM(C40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="180" dxfId="11">
+    <cfRule type="containsBlanks" priority="182" dxfId="11">
       <formula>LEN(TRIM(C40))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1498,90 +1533,90 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29">
-    <cfRule type="notContainsBlanks" priority="36" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="38" dxfId="11">
       <formula>LEN(TRIM(D29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="37" dxfId="11">
+    <cfRule type="containsBlanks" priority="39" dxfId="11">
       <formula>LEN(TRIM(D29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31">
-    <cfRule type="notContainsBlanks" priority="56" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="58" dxfId="11">
       <formula>LEN(TRIM(D31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="57" dxfId="11">
+    <cfRule type="containsBlanks" priority="59" dxfId="11">
       <formula>LEN(TRIM(D31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D32">
-    <cfRule type="notContainsBlanks" priority="70" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="72" dxfId="11">
       <formula>LEN(TRIM(D32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="71" dxfId="11">
+    <cfRule type="containsBlanks" priority="73" dxfId="11">
       <formula>LEN(TRIM(D32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D33">
-    <cfRule type="notContainsBlanks" priority="84" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="86" dxfId="11">
       <formula>LEN(TRIM(D33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="85" dxfId="11">
+    <cfRule type="containsBlanks" priority="87" dxfId="11">
       <formula>LEN(TRIM(D33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D34">
-    <cfRule type="notContainsBlanks" priority="98" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="100" dxfId="11">
       <formula>LEN(TRIM(D34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="99" dxfId="11">
+    <cfRule type="containsBlanks" priority="101" dxfId="11">
       <formula>LEN(TRIM(D34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D35">
-    <cfRule type="notContainsBlanks" priority="112" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="114" dxfId="11">
       <formula>LEN(TRIM(D35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="113" dxfId="11">
+    <cfRule type="containsBlanks" priority="115" dxfId="11">
       <formula>LEN(TRIM(D35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D36">
-    <cfRule type="notContainsBlanks" priority="126" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="128" dxfId="11">
       <formula>LEN(TRIM(D36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="127" dxfId="11">
+    <cfRule type="containsBlanks" priority="129" dxfId="11">
       <formula>LEN(TRIM(D36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D37">
-    <cfRule type="notContainsBlanks" priority="140" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="142" dxfId="11">
       <formula>LEN(TRIM(D37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="141" dxfId="11">
+    <cfRule type="containsBlanks" priority="143" dxfId="11">
       <formula>LEN(TRIM(D37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D38">
-    <cfRule type="notContainsBlanks" priority="154" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="156" dxfId="11">
       <formula>LEN(TRIM(D38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="155" dxfId="11">
+    <cfRule type="containsBlanks" priority="157" dxfId="11">
       <formula>LEN(TRIM(D38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D39">
-    <cfRule type="notContainsBlanks" priority="167" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="169" dxfId="11">
       <formula>LEN(TRIM(D39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="168" dxfId="11">
+    <cfRule type="containsBlanks" priority="170" dxfId="11">
       <formula>LEN(TRIM(D39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D40">
-    <cfRule type="notContainsBlanks" priority="181" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="183" dxfId="11">
       <formula>LEN(TRIM(D40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="182" dxfId="11">
+    <cfRule type="containsBlanks" priority="184" dxfId="11">
       <formula>LEN(TRIM(D40))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1594,266 +1629,274 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="notContainsBlanks" priority="38" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="40" dxfId="11">
       <formula>LEN(TRIM(E29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="39" dxfId="11">
+    <cfRule type="containsBlanks" priority="41" dxfId="11">
       <formula>LEN(TRIM(E29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31">
-    <cfRule type="notContainsBlanks" priority="58" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="60" dxfId="11">
       <formula>LEN(TRIM(E31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="59" dxfId="11">
+    <cfRule type="containsBlanks" priority="61" dxfId="11">
       <formula>LEN(TRIM(E31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E32">
-    <cfRule type="notContainsBlanks" priority="72" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="74" dxfId="11">
       <formula>LEN(TRIM(E32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="73" dxfId="11">
+    <cfRule type="containsBlanks" priority="75" dxfId="11">
       <formula>LEN(TRIM(E32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="notContainsBlanks" priority="86" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="88" dxfId="11">
       <formula>LEN(TRIM(E33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="87" dxfId="11">
+    <cfRule type="containsBlanks" priority="89" dxfId="11">
       <formula>LEN(TRIM(E33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E34">
-    <cfRule type="notContainsBlanks" priority="100" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="102" dxfId="11">
       <formula>LEN(TRIM(E34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="101" dxfId="11">
+    <cfRule type="containsBlanks" priority="103" dxfId="11">
       <formula>LEN(TRIM(E34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E35">
-    <cfRule type="notContainsBlanks" priority="114" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="116" dxfId="11">
       <formula>LEN(TRIM(E35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="115" dxfId="11">
+    <cfRule type="containsBlanks" priority="117" dxfId="11">
       <formula>LEN(TRIM(E35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E36">
-    <cfRule type="notContainsBlanks" priority="128" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="130" dxfId="11">
       <formula>LEN(TRIM(E36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="129" dxfId="11">
+    <cfRule type="containsBlanks" priority="131" dxfId="11">
       <formula>LEN(TRIM(E36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37">
-    <cfRule type="notContainsBlanks" priority="142" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="144" dxfId="11">
       <formula>LEN(TRIM(E37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="143" dxfId="11">
+    <cfRule type="containsBlanks" priority="145" dxfId="11">
       <formula>LEN(TRIM(E37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="notContainsBlanks" priority="156" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="158" dxfId="11">
       <formula>LEN(TRIM(E38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="157" dxfId="11">
+    <cfRule type="containsBlanks" priority="159" dxfId="11">
       <formula>LEN(TRIM(E38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="notContainsBlanks" priority="169" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="171" dxfId="11">
       <formula>LEN(TRIM(E39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="170" dxfId="11">
+    <cfRule type="containsBlanks" priority="172" dxfId="11">
       <formula>LEN(TRIM(E39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E40">
-    <cfRule type="notContainsBlanks" priority="183" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="185" dxfId="11">
       <formula>LEN(TRIM(E40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="184" dxfId="11">
+    <cfRule type="containsBlanks" priority="186" dxfId="11">
       <formula>LEN(TRIM(E40))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="F22:F28">
+    <cfRule type="notContainsBlanks" priority="31" dxfId="10">
+      <formula>LEN(TRIM(F22))&gt;0</formula>
+    </cfRule>
+    <cfRule type="containsBlanks" priority="32" dxfId="10">
+      <formula>LEN(TRIM(F22))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F29">
-    <cfRule type="notContainsBlanks" priority="40" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="42" dxfId="11">
       <formula>LEN(TRIM(F29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="41" dxfId="11">
+    <cfRule type="containsBlanks" priority="43" dxfId="11">
       <formula>LEN(TRIM(F29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F31">
-    <cfRule type="notContainsBlanks" priority="60" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="62" dxfId="11">
       <formula>LEN(TRIM(F31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="61" dxfId="11">
+    <cfRule type="containsBlanks" priority="63" dxfId="11">
       <formula>LEN(TRIM(F31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F32">
-    <cfRule type="notContainsBlanks" priority="74" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="76" dxfId="11">
       <formula>LEN(TRIM(F32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="75" dxfId="11">
+    <cfRule type="containsBlanks" priority="77" dxfId="11">
       <formula>LEN(TRIM(F32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F33">
-    <cfRule type="notContainsBlanks" priority="88" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="90" dxfId="11">
       <formula>LEN(TRIM(F33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="89" dxfId="11">
+    <cfRule type="containsBlanks" priority="91" dxfId="11">
       <formula>LEN(TRIM(F33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34">
-    <cfRule type="notContainsBlanks" priority="102" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="104" dxfId="11">
       <formula>LEN(TRIM(F34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="103" dxfId="11">
+    <cfRule type="containsBlanks" priority="105" dxfId="11">
       <formula>LEN(TRIM(F34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F35">
-    <cfRule type="notContainsBlanks" priority="116" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="118" dxfId="11">
       <formula>LEN(TRIM(F35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="117" dxfId="11">
+    <cfRule type="containsBlanks" priority="119" dxfId="11">
       <formula>LEN(TRIM(F35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F36">
-    <cfRule type="notContainsBlanks" priority="130" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="132" dxfId="11">
       <formula>LEN(TRIM(F36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="131" dxfId="11">
+    <cfRule type="containsBlanks" priority="133" dxfId="11">
       <formula>LEN(TRIM(F36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37">
-    <cfRule type="notContainsBlanks" priority="144" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="146" dxfId="11">
       <formula>LEN(TRIM(F37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="145" dxfId="11">
+    <cfRule type="containsBlanks" priority="147" dxfId="11">
       <formula>LEN(TRIM(F37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F38">
-    <cfRule type="notContainsBlanks" priority="158" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="160" dxfId="11">
       <formula>LEN(TRIM(F38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="159" dxfId="11">
+    <cfRule type="containsBlanks" priority="161" dxfId="11">
       <formula>LEN(TRIM(F38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F39">
-    <cfRule type="notContainsBlanks" priority="171" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="173" dxfId="11">
       <formula>LEN(TRIM(F39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="172" dxfId="11">
+    <cfRule type="containsBlanks" priority="174" dxfId="11">
       <formula>LEN(TRIM(F39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F40">
-    <cfRule type="notContainsBlanks" priority="185" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="187" dxfId="11">
       <formula>LEN(TRIM(F40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="186" dxfId="11">
+    <cfRule type="containsBlanks" priority="188" dxfId="11">
       <formula>LEN(TRIM(F40))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G29">
-    <cfRule type="notContainsBlanks" priority="42" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="44" dxfId="11">
       <formula>LEN(TRIM(G29))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="43" dxfId="11">
+    <cfRule type="containsBlanks" priority="45" dxfId="11">
       <formula>LEN(TRIM(G29))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G31">
-    <cfRule type="notContainsBlanks" priority="62" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="64" dxfId="11">
       <formula>LEN(TRIM(G31))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="63" dxfId="11">
+    <cfRule type="containsBlanks" priority="65" dxfId="11">
       <formula>LEN(TRIM(G31))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G32">
-    <cfRule type="notContainsBlanks" priority="76" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="78" dxfId="11">
       <formula>LEN(TRIM(G32))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="77" dxfId="11">
+    <cfRule type="containsBlanks" priority="79" dxfId="11">
       <formula>LEN(TRIM(G32))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G33">
-    <cfRule type="notContainsBlanks" priority="90" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="92" dxfId="11">
       <formula>LEN(TRIM(G33))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="91" dxfId="11">
+    <cfRule type="containsBlanks" priority="93" dxfId="11">
       <formula>LEN(TRIM(G33))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G34">
-    <cfRule type="notContainsBlanks" priority="104" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="106" dxfId="11">
       <formula>LEN(TRIM(G34))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="105" dxfId="11">
+    <cfRule type="containsBlanks" priority="107" dxfId="11">
       <formula>LEN(TRIM(G34))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G35">
-    <cfRule type="notContainsBlanks" priority="118" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="120" dxfId="11">
       <formula>LEN(TRIM(G35))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="119" dxfId="11">
+    <cfRule type="containsBlanks" priority="121" dxfId="11">
       <formula>LEN(TRIM(G35))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G36">
-    <cfRule type="notContainsBlanks" priority="132" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="134" dxfId="11">
       <formula>LEN(TRIM(G36))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="133" dxfId="11">
+    <cfRule type="containsBlanks" priority="135" dxfId="11">
       <formula>LEN(TRIM(G36))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G37">
-    <cfRule type="notContainsBlanks" priority="146" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="148" dxfId="11">
       <formula>LEN(TRIM(G37))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="147" dxfId="11">
+    <cfRule type="containsBlanks" priority="149" dxfId="11">
       <formula>LEN(TRIM(G37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G38">
-    <cfRule type="notContainsBlanks" priority="160" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="162" dxfId="11">
       <formula>LEN(TRIM(G38))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="161" dxfId="11">
+    <cfRule type="containsBlanks" priority="163" dxfId="11">
       <formula>LEN(TRIM(G38))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G39">
-    <cfRule type="notContainsBlanks" priority="173" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="175" dxfId="11">
       <formula>LEN(TRIM(G39))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="174" dxfId="11">
+    <cfRule type="containsBlanks" priority="176" dxfId="11">
       <formula>LEN(TRIM(G39))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G40">
-    <cfRule type="notContainsBlanks" priority="187" dxfId="11">
+    <cfRule type="notContainsBlanks" priority="189" dxfId="11">
       <formula>LEN(TRIM(G40))&gt;0</formula>
     </cfRule>
-    <cfRule type="containsBlanks" priority="188" dxfId="11">
+    <cfRule type="containsBlanks" priority="190" dxfId="11">
       <formula>LEN(TRIM(G40))=0</formula>
     </cfRule>
   </conditionalFormatting>
